--- a/RMS-RA Data check/RMS-RA部门销售数据核对/表格/RMS-RA数据核对2016-04-22.xlsx
+++ b/RMS-RA Data check/RMS-RA部门销售数据核对/表格/RMS-RA数据核对2016-04-22.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WORK\BBG\RMS-RA Data check\RMS-RA部门销售数据核对\表格\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="8505" yWindow="105" windowWidth="10095" windowHeight="5280"/>
   </bookViews>
@@ -16,7 +11,7 @@
     <sheet name="RA" sheetId="3" r:id="rId2"/>
     <sheet name="RMS" sheetId="4" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
@@ -314,7 +309,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="8">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
@@ -325,7 +320,7 @@
     <numFmt numFmtId="180" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="181" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
   </numFmts>
-  <fonts count="87" x14ac:knownFonts="1">
+  <fonts count="87">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -2262,7 +2257,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="85">
+  <cellXfs count="82">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="177" fontId="29" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -2343,11 +2338,17 @@
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="30" fillId="33" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="30" fillId="33" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="30" fillId="33" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="30" fillId="33" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="30" fillId="33" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="31" fillId="33" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -2361,126 +2362,116 @@
     <xf numFmtId="49" fontId="30" fillId="33" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="30" fillId="33" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="30" fillId="33" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="30" fillId="33" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="33" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="33" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="33" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="31" fillId="33" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="30" fillId="33" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="31" fillId="33" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="19" xfId="313" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="30" fillId="33" borderId="15" xfId="313" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="31" fillId="33" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="313" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="4" fontId="31" fillId="34" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="30" fillId="33" borderId="12" xfId="313" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="31" fillId="34" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="31" fillId="34" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="30" fillId="33" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="30" fillId="33" borderId="16" xfId="313" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="30" fillId="35" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="30" fillId="35" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="30" fillId="35" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="30" fillId="33" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="30" fillId="33" borderId="17" xfId="313" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="35" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="35" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="30" fillId="33" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="31" fillId="33" borderId="15" xfId="313" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="31" fillId="33" borderId="14" xfId="313" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="31" fillId="33" borderId="13" xfId="313" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="33" borderId="15" xfId="313" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="33" borderId="13" xfId="313" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="313" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="30" fillId="33" borderId="13" xfId="313" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="313">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="313" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="19" xfId="313" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="10" xfId="313" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="11" xfId="313" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="11" xfId="313" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="30" fillId="33" borderId="10" xfId="313" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="30" fillId="33" borderId="12" xfId="313" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="33" borderId="10" xfId="313" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="33" borderId="12" xfId="313" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="31" fillId="34" borderId="10" xfId="313" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="30" fillId="35" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="31" fillId="34" borderId="10" xfId="313" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="35" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="31" fillId="34" borderId="12" xfId="313" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="30" fillId="35" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="4" fontId="30" fillId="35" borderId="10" xfId="313" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="30" fillId="35" borderId="10" xfId="313" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="30" fillId="35" borderId="12" xfId="313" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="35" borderId="10" xfId="313" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="35" borderId="12" xfId="313" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="30" fillId="35" borderId="13" xfId="313" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="35" borderId="13" xfId="313" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="30" fillId="35" borderId="13" xfId="313" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="30" fillId="35" borderId="20" xfId="313" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="30" fillId="35" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="327">
+    <cellStyle name="20% - 强调文字颜色 1" xfId="19" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - 强调文字颜色 1 2" xfId="192"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="23" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20% - 强调文字颜色 2 2" xfId="196"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="27" builtinId="38" customBuiltin="1"/>
     <cellStyle name="20% - 强调文字颜色 3 2" xfId="200"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="31" builtinId="42" customBuiltin="1"/>
     <cellStyle name="20% - 强调文字颜色 4 2" xfId="204"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="35" builtinId="46" customBuiltin="1"/>
     <cellStyle name="20% - 强调文字颜色 5 2" xfId="208"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="39" builtinId="50" customBuiltin="1"/>
     <cellStyle name="20% - 强调文字颜色 6 2" xfId="212"/>
-    <cellStyle name="20% - 着色 1" xfId="19" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - 着色 1 10" xfId="287"/>
     <cellStyle name="20% - 着色 1 11" xfId="301"/>
     <cellStyle name="20% - 着色 1 12" xfId="315"/>
@@ -2492,7 +2483,6 @@
     <cellStyle name="20% - 着色 1 7" xfId="245"/>
     <cellStyle name="20% - 着色 1 8" xfId="259"/>
     <cellStyle name="20% - 着色 1 9" xfId="273"/>
-    <cellStyle name="20% - 着色 2" xfId="23" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20% - 着色 2 10" xfId="289"/>
     <cellStyle name="20% - 着色 2 11" xfId="303"/>
     <cellStyle name="20% - 着色 2 12" xfId="317"/>
@@ -2504,7 +2494,6 @@
     <cellStyle name="20% - 着色 2 7" xfId="247"/>
     <cellStyle name="20% - 着色 2 8" xfId="261"/>
     <cellStyle name="20% - 着色 2 9" xfId="275"/>
-    <cellStyle name="20% - 着色 3" xfId="27" builtinId="38" customBuiltin="1"/>
     <cellStyle name="20% - 着色 3 10" xfId="291"/>
     <cellStyle name="20% - 着色 3 11" xfId="305"/>
     <cellStyle name="20% - 着色 3 12" xfId="319"/>
@@ -2516,7 +2505,6 @@
     <cellStyle name="20% - 着色 3 7" xfId="249"/>
     <cellStyle name="20% - 着色 3 8" xfId="263"/>
     <cellStyle name="20% - 着色 3 9" xfId="277"/>
-    <cellStyle name="20% - 着色 4" xfId="31" builtinId="42" customBuiltin="1"/>
     <cellStyle name="20% - 着色 4 10" xfId="293"/>
     <cellStyle name="20% - 着色 4 11" xfId="307"/>
     <cellStyle name="20% - 着色 4 12" xfId="321"/>
@@ -2528,7 +2516,6 @@
     <cellStyle name="20% - 着色 4 7" xfId="251"/>
     <cellStyle name="20% - 着色 4 8" xfId="265"/>
     <cellStyle name="20% - 着色 4 9" xfId="279"/>
-    <cellStyle name="20% - 着色 5" xfId="35" builtinId="46" customBuiltin="1"/>
     <cellStyle name="20% - 着色 5 10" xfId="295"/>
     <cellStyle name="20% - 着色 5 11" xfId="309"/>
     <cellStyle name="20% - 着色 5 12" xfId="323"/>
@@ -2540,7 +2527,6 @@
     <cellStyle name="20% - 着色 5 7" xfId="253"/>
     <cellStyle name="20% - 着色 5 8" xfId="267"/>
     <cellStyle name="20% - 着色 5 9" xfId="281"/>
-    <cellStyle name="20% - 着色 6" xfId="39" builtinId="50" customBuiltin="1"/>
     <cellStyle name="20% - 着色 6 10" xfId="297"/>
     <cellStyle name="20% - 着色 6 11" xfId="311"/>
     <cellStyle name="20% - 着色 6 12" xfId="325"/>
@@ -2552,13 +2538,18 @@
     <cellStyle name="20% - 着色 6 7" xfId="255"/>
     <cellStyle name="20% - 着色 6 8" xfId="269"/>
     <cellStyle name="20% - 着色 6 9" xfId="283"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="20" builtinId="31" customBuiltin="1"/>
     <cellStyle name="40% - 强调文字颜色 1 2" xfId="193"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="24" builtinId="35" customBuiltin="1"/>
     <cellStyle name="40% - 强调文字颜色 2 2" xfId="197"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="28" builtinId="39" customBuiltin="1"/>
     <cellStyle name="40% - 强调文字颜色 3 2" xfId="201"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="32" builtinId="43" customBuiltin="1"/>
     <cellStyle name="40% - 强调文字颜色 4 2" xfId="205"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="36" builtinId="47" customBuiltin="1"/>
     <cellStyle name="40% - 强调文字颜色 5 2" xfId="209"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51" customBuiltin="1"/>
     <cellStyle name="40% - 强调文字颜色 6 2" xfId="213"/>
-    <cellStyle name="40% - 着色 1" xfId="20" builtinId="31" customBuiltin="1"/>
     <cellStyle name="40% - 着色 1 10" xfId="288"/>
     <cellStyle name="40% - 着色 1 11" xfId="302"/>
     <cellStyle name="40% - 着色 1 12" xfId="316"/>
@@ -2570,7 +2561,6 @@
     <cellStyle name="40% - 着色 1 7" xfId="246"/>
     <cellStyle name="40% - 着色 1 8" xfId="260"/>
     <cellStyle name="40% - 着色 1 9" xfId="274"/>
-    <cellStyle name="40% - 着色 2" xfId="24" builtinId="35" customBuiltin="1"/>
     <cellStyle name="40% - 着色 2 10" xfId="290"/>
     <cellStyle name="40% - 着色 2 11" xfId="304"/>
     <cellStyle name="40% - 着色 2 12" xfId="318"/>
@@ -2582,7 +2572,6 @@
     <cellStyle name="40% - 着色 2 7" xfId="248"/>
     <cellStyle name="40% - 着色 2 8" xfId="262"/>
     <cellStyle name="40% - 着色 2 9" xfId="276"/>
-    <cellStyle name="40% - 着色 3" xfId="28" builtinId="39" customBuiltin="1"/>
     <cellStyle name="40% - 着色 3 10" xfId="292"/>
     <cellStyle name="40% - 着色 3 11" xfId="306"/>
     <cellStyle name="40% - 着色 3 12" xfId="320"/>
@@ -2594,7 +2583,6 @@
     <cellStyle name="40% - 着色 3 7" xfId="250"/>
     <cellStyle name="40% - 着色 3 8" xfId="264"/>
     <cellStyle name="40% - 着色 3 9" xfId="278"/>
-    <cellStyle name="40% - 着色 4" xfId="32" builtinId="43" customBuiltin="1"/>
     <cellStyle name="40% - 着色 4 10" xfId="294"/>
     <cellStyle name="40% - 着色 4 11" xfId="308"/>
     <cellStyle name="40% - 着色 4 12" xfId="322"/>
@@ -2606,7 +2594,6 @@
     <cellStyle name="40% - 着色 4 7" xfId="252"/>
     <cellStyle name="40% - 着色 4 8" xfId="266"/>
     <cellStyle name="40% - 着色 4 9" xfId="280"/>
-    <cellStyle name="40% - 着色 5" xfId="36" builtinId="47" customBuiltin="1"/>
     <cellStyle name="40% - 着色 5 10" xfId="296"/>
     <cellStyle name="40% - 着色 5 11" xfId="310"/>
     <cellStyle name="40% - 着色 5 12" xfId="324"/>
@@ -2618,7 +2605,6 @@
     <cellStyle name="40% - 着色 5 7" xfId="254"/>
     <cellStyle name="40% - 着色 5 8" xfId="268"/>
     <cellStyle name="40% - 着色 5 9" xfId="282"/>
-    <cellStyle name="40% - 着色 6" xfId="40" builtinId="51" customBuiltin="1"/>
     <cellStyle name="40% - 着色 6 10" xfId="298"/>
     <cellStyle name="40% - 着色 6 11" xfId="312"/>
     <cellStyle name="40% - 着色 6 12" xfId="326"/>
@@ -2630,28 +2616,28 @@
     <cellStyle name="40% - 着色 6 7" xfId="256"/>
     <cellStyle name="40% - 着色 6 8" xfId="270"/>
     <cellStyle name="40% - 着色 6 9" xfId="284"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32" customBuiltin="1"/>
     <cellStyle name="60% - 强调文字颜色 1 2" xfId="194"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="25" builtinId="36" customBuiltin="1"/>
     <cellStyle name="60% - 强调文字颜色 2 2" xfId="198"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="29" builtinId="40" customBuiltin="1"/>
     <cellStyle name="60% - 强调文字颜色 3 2" xfId="202"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="33" builtinId="44" customBuiltin="1"/>
     <cellStyle name="60% - 强调文字颜色 4 2" xfId="206"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="37" builtinId="48" customBuiltin="1"/>
     <cellStyle name="60% - 强调文字颜色 5 2" xfId="210"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="41" builtinId="52" customBuiltin="1"/>
     <cellStyle name="60% - 强调文字颜色 6 2" xfId="214"/>
-    <cellStyle name="60% - 着色 1" xfId="21" builtinId="32" customBuiltin="1"/>
     <cellStyle name="60% - 着色 1 2" xfId="86"/>
     <cellStyle name="60% - 着色 1 3" xfId="152"/>
-    <cellStyle name="60% - 着色 2" xfId="25" builtinId="36" customBuiltin="1"/>
     <cellStyle name="60% - 着色 2 2" xfId="90"/>
     <cellStyle name="60% - 着色 2 3" xfId="156"/>
-    <cellStyle name="60% - 着色 3" xfId="29" builtinId="40" customBuiltin="1"/>
     <cellStyle name="60% - 着色 3 2" xfId="94"/>
     <cellStyle name="60% - 着色 3 3" xfId="160"/>
-    <cellStyle name="60% - 着色 4" xfId="33" builtinId="44" customBuiltin="1"/>
     <cellStyle name="60% - 着色 4 2" xfId="98"/>
     <cellStyle name="60% - 着色 4 3" xfId="164"/>
-    <cellStyle name="60% - 着色 5" xfId="37" builtinId="48" customBuiltin="1"/>
     <cellStyle name="60% - 着色 5 2" xfId="102"/>
     <cellStyle name="60% - 着色 5 3" xfId="168"/>
-    <cellStyle name="60% - 着色 6" xfId="41" builtinId="52" customBuiltin="1"/>
     <cellStyle name="60% - 着色 6 2" xfId="106"/>
     <cellStyle name="60% - 着色 6 3" xfId="172"/>
     <cellStyle name="OBI_ColHeader" xfId="109"/>
@@ -2737,11 +2723,17 @@
     <cellStyle name="千位分隔 2" xfId="63"/>
     <cellStyle name="千位分隔[0]" xfId="112" builtinId="6" customBuiltin="1"/>
     <cellStyle name="千位分隔[0] 2" xfId="64"/>
+    <cellStyle name="强调文字颜色 1" xfId="18" builtinId="29" customBuiltin="1"/>
     <cellStyle name="强调文字颜色 1 2" xfId="191"/>
+    <cellStyle name="强调文字颜色 2" xfId="22" builtinId="33" customBuiltin="1"/>
     <cellStyle name="强调文字颜色 2 2" xfId="195"/>
+    <cellStyle name="强调文字颜色 3" xfId="26" builtinId="37" customBuiltin="1"/>
     <cellStyle name="强调文字颜色 3 2" xfId="199"/>
+    <cellStyle name="强调文字颜色 4" xfId="30" builtinId="41" customBuiltin="1"/>
     <cellStyle name="强调文字颜色 4 2" xfId="203"/>
+    <cellStyle name="强调文字颜色 5" xfId="34" builtinId="45" customBuiltin="1"/>
     <cellStyle name="强调文字颜色 5 2" xfId="207"/>
+    <cellStyle name="强调文字颜色 6" xfId="38" builtinId="49" customBuiltin="1"/>
     <cellStyle name="强调文字颜色 6 2" xfId="211"/>
     <cellStyle name="适中" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="适中 2" xfId="74"/>
@@ -2755,22 +2747,16 @@
     <cellStyle name="已访问的超链接" xfId="43" builtinId="9" customBuiltin="1"/>
     <cellStyle name="已访问的超链接 2" xfId="108"/>
     <cellStyle name="已访问的超链接 3" xfId="174"/>
-    <cellStyle name="着色 1" xfId="18" builtinId="29" customBuiltin="1"/>
     <cellStyle name="着色 1 2" xfId="83"/>
     <cellStyle name="着色 1 3" xfId="149"/>
-    <cellStyle name="着色 2" xfId="22" builtinId="33" customBuiltin="1"/>
     <cellStyle name="着色 2 2" xfId="87"/>
     <cellStyle name="着色 2 3" xfId="153"/>
-    <cellStyle name="着色 3" xfId="26" builtinId="37" customBuiltin="1"/>
     <cellStyle name="着色 3 2" xfId="91"/>
     <cellStyle name="着色 3 3" xfId="157"/>
-    <cellStyle name="着色 4" xfId="30" builtinId="41" customBuiltin="1"/>
     <cellStyle name="着色 4 2" xfId="95"/>
     <cellStyle name="着色 4 3" xfId="161"/>
-    <cellStyle name="着色 5" xfId="34" builtinId="45" customBuiltin="1"/>
     <cellStyle name="着色 5 2" xfId="99"/>
     <cellStyle name="着色 5 3" xfId="165"/>
-    <cellStyle name="着色 6" xfId="38" builtinId="49" customBuiltin="1"/>
     <cellStyle name="着色 6 2" xfId="103"/>
     <cellStyle name="着色 6 3" xfId="169"/>
     <cellStyle name="注释" xfId="15" builtinId="10" customBuiltin="1"/>
@@ -21127,7 +21113,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -21147,7 +21133,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -21184,7 +21170,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:link="rId450" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -21204,7 +21190,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -21239,7 +21225,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -21259,7 +21245,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -21296,7 +21282,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:link="rId452" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -21316,7 +21302,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -21351,7 +21337,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -21371,7 +21357,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -21408,7 +21394,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:link="rId454" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -21428,7 +21414,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -21463,7 +21449,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -21483,7 +21469,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -21520,7 +21506,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:link="rId456" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -21540,7 +21526,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -21575,7 +21561,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -21595,7 +21581,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -21632,7 +21618,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:link="rId458" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -21652,7 +21638,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -21687,7 +21673,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -21707,7 +21693,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -21744,7 +21730,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:link="rId460" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -21764,7 +21750,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -21799,7 +21785,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -21819,7 +21805,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -21856,7 +21842,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:link="rId462" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -21876,7 +21862,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -21911,7 +21897,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -21931,7 +21917,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -21968,7 +21954,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:link="rId464" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -21988,7 +21974,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -22023,7 +22009,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -22043,7 +22029,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -22080,7 +22066,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:link="rId466" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -22100,7 +22086,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -22135,7 +22121,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -22155,7 +22141,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -22192,7 +22178,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:link="rId468" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -22212,7 +22198,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -22247,7 +22233,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -22267,7 +22253,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -22304,7 +22290,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:link="rId470" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -22324,7 +22310,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -44335,7 +44321,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -44355,7 +44341,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -44392,7 +44378,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:link="rId450" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -44412,7 +44398,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -44447,7 +44433,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -44467,7 +44453,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -44504,7 +44490,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:link="rId452" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -44524,7 +44510,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -44559,7 +44545,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -44579,7 +44565,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -44616,7 +44602,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:link="rId454" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -44636,7 +44622,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -44671,7 +44657,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -44691,7 +44677,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -44728,7 +44714,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:link="rId456" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -44748,7 +44734,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -44783,7 +44769,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -44803,7 +44789,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -44840,7 +44826,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:link="rId458" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -44860,7 +44846,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -44895,7 +44881,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -44915,7 +44901,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -44952,7 +44938,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:link="rId460" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -44972,7 +44958,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -45007,7 +44993,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -45027,7 +45013,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -45064,7 +45050,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:link="rId462" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -45084,7 +45070,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -45119,7 +45105,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -45139,7 +45125,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -45176,7 +45162,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:link="rId464" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -45196,7 +45182,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -45231,7 +45217,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -45251,7 +45237,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -45288,7 +45274,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:link="rId466" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -45308,7 +45294,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -45343,7 +45329,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -45363,7 +45349,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -45400,7 +45386,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:link="rId468" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -45420,7 +45406,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -45455,7 +45441,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -45475,7 +45461,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -45512,7 +45498,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:link="rId470" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -45532,7 +45518,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -53069,6 +53055,88 @@
       </xdr:nvPicPr>
       <xdr:blipFill>
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:link="rId656" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="19792950" y="0"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1212" name="Picture 1" descr="徽标"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="523875" cy="333375"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1213" name="Picture 2" descr="cid:4b30d21c13">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId657" tgtFrame="_blank"/>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:link="rId658" cstate="print"/>
         <a:srcRect/>
         <a:stretch>
           <a:fillRect/>
@@ -53133,7 +53201,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -53165,10 +53233,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -53200,7 +53267,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -53376,18 +53442,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:M41"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="B16" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
       <selection pane="bottomRight" activeCell="O19" sqref="O19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="11.25"/>
   <cols>
     <col min="1" max="1" width="9.7109375" style="1" customWidth="1"/>
     <col min="2" max="2" width="4.5703125" style="4" customWidth="1"/>
@@ -53402,7 +53468,7 @@
     <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13">
       <c r="A1" s="5"/>
       <c r="B1" s="6"/>
       <c r="C1" s="7"/>
@@ -53432,15 +53498,15 @@
         <v>44</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13">
       <c r="A2" s="11" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="12"/>
-      <c r="C2" s="42" t="s">
+      <c r="C2" s="45" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="42"/>
+      <c r="D2" s="45"/>
       <c r="E2" s="13"/>
       <c r="F2" s="24"/>
       <c r="G2" s="14"/>
@@ -53450,28 +53516,28 @@
       <c r="K2" s="22"/>
       <c r="L2" s="22"/>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A3" s="44" t="s">
+    <row r="3" spans="1:13">
+      <c r="A3" s="46" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="44"/>
-      <c r="C3" s="44"/>
-      <c r="D3" s="44"/>
+      <c r="B3" s="46"/>
+      <c r="C3" s="46"/>
+      <c r="D3" s="46"/>
       <c r="E3" s="15">
         <f>SUM(E4:E41)</f>
-        <v>16899950.927200001</v>
+        <v>16900036.397300001</v>
       </c>
       <c r="F3" s="25">
         <f>RA!I7</f>
-        <v>953586.36300000001</v>
+        <v>953671.83299999998</v>
       </c>
       <c r="G3" s="16">
         <f>SUM(G4:G41)</f>
-        <v>15946364.564200001</v>
+        <v>15946364.564300001</v>
       </c>
       <c r="H3" s="27">
         <f>RA!J7</f>
-        <v>5.6425392423195104</v>
+        <v>5.6430164443454203</v>
       </c>
       <c r="I3" s="20">
         <f>SUM(I4:I41)</f>
@@ -53483,25 +53549,25 @@
       </c>
       <c r="K3" s="22">
         <f>E3-I3</f>
-        <v>-89.5531903244555</v>
+        <v>-4.0830903239548206</v>
       </c>
       <c r="L3" s="22">
         <f>G3-J3</f>
-        <v>2.9411865398287773E-2</v>
+        <v>2.9511865228414536E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A4" s="45">
+    <row r="4" spans="1:13">
+      <c r="A4" s="47">
         <f>RA!A8</f>
         <v>42482</v>
       </c>
       <c r="B4" s="12">
         <v>12</v>
       </c>
-      <c r="C4" s="43" t="s">
+      <c r="C4" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="43"/>
+      <c r="D4" s="42"/>
       <c r="E4" s="15">
         <f>VLOOKUP(C4,RA!B8:D35,3,0)</f>
         <v>473097.33760000003</v>
@@ -53535,15 +53601,15 @@
         <v>-8.0991449649445713E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A5" s="45"/>
+    <row r="5" spans="1:13">
+      <c r="A5" s="47"/>
       <c r="B5" s="12">
         <v>13</v>
       </c>
-      <c r="C5" s="43" t="s">
+      <c r="C5" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="43"/>
+      <c r="D5" s="42"/>
       <c r="E5" s="15">
         <f>VLOOKUP(C5,RA!B8:D36,3,0)</f>
         <v>105200.4632</v>
@@ -53578,15 +53644,15 @@
       </c>
       <c r="M5" s="32"/>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A6" s="45"/>
+    <row r="6" spans="1:13">
+      <c r="A6" s="47"/>
       <c r="B6" s="12">
         <v>14</v>
       </c>
-      <c r="C6" s="43" t="s">
+      <c r="C6" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="43"/>
+      <c r="D6" s="42"/>
       <c r="E6" s="15">
         <f>VLOOKUP(C6,RA!B10:D37,3,0)</f>
         <v>105924.4071</v>
@@ -53621,15 +53687,15 @@
       </c>
       <c r="M6" s="32"/>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A7" s="45"/>
+    <row r="7" spans="1:13">
+      <c r="A7" s="47"/>
       <c r="B7" s="12">
         <v>15</v>
       </c>
-      <c r="C7" s="43" t="s">
+      <c r="C7" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="43"/>
+      <c r="D7" s="42"/>
       <c r="E7" s="15">
         <f>VLOOKUP(C7,RA!B10:D38,3,0)</f>
         <v>37915.535100000001</v>
@@ -53664,15 +53730,15 @@
       </c>
       <c r="M7" s="32"/>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A8" s="45"/>
+    <row r="8" spans="1:13">
+      <c r="A8" s="47"/>
       <c r="B8" s="12">
         <v>16</v>
       </c>
-      <c r="C8" s="43" t="s">
+      <c r="C8" s="42" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="43"/>
+      <c r="D8" s="42"/>
       <c r="E8" s="15">
         <f>VLOOKUP(C8,RA!B12:D38,3,0)</f>
         <v>142748.51029999999</v>
@@ -53707,15 +53773,15 @@
       </c>
       <c r="M8" s="32"/>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A9" s="45"/>
+    <row r="9" spans="1:13">
+      <c r="A9" s="47"/>
       <c r="B9" s="12">
         <v>17</v>
       </c>
-      <c r="C9" s="43" t="s">
+      <c r="C9" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="D9" s="43"/>
+      <c r="D9" s="42"/>
       <c r="E9" s="15">
         <f>VLOOKUP(C9,RA!B12:D39,3,0)</f>
         <v>235959.84049999999</v>
@@ -53750,15 +53816,15 @@
       </c>
       <c r="M9" s="32"/>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A10" s="45"/>
+    <row r="10" spans="1:13">
+      <c r="A10" s="47"/>
       <c r="B10" s="12">
         <v>18</v>
       </c>
-      <c r="C10" s="43" t="s">
+      <c r="C10" s="42" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="43"/>
+      <c r="D10" s="42"/>
       <c r="E10" s="15">
         <f>VLOOKUP(C10,RA!B14:D40,3,0)</f>
         <v>150397.23569999999</v>
@@ -53793,15 +53859,15 @@
       </c>
       <c r="M10" s="32"/>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A11" s="45"/>
+    <row r="11" spans="1:13">
+      <c r="A11" s="47"/>
       <c r="B11" s="12">
         <v>19</v>
       </c>
-      <c r="C11" s="43" t="s">
+      <c r="C11" s="42" t="s">
         <v>13</v>
       </c>
-      <c r="D11" s="43"/>
+      <c r="D11" s="42"/>
       <c r="E11" s="15">
         <f>VLOOKUP(C11,RA!B14:D41,3,0)</f>
         <v>110823.518</v>
@@ -53836,15 +53902,15 @@
       </c>
       <c r="M11" s="32"/>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A12" s="45"/>
+    <row r="12" spans="1:13">
+      <c r="A12" s="47"/>
       <c r="B12" s="12">
         <v>21</v>
       </c>
-      <c r="C12" s="43" t="s">
+      <c r="C12" s="42" t="s">
         <v>14</v>
       </c>
-      <c r="D12" s="43"/>
+      <c r="D12" s="42"/>
       <c r="E12" s="15">
         <f>VLOOKUP(C12,RA!B16:D42,3,0)</f>
         <v>757564.67420000001</v>
@@ -53879,15 +53945,15 @@
       </c>
       <c r="M12" s="32"/>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A13" s="45"/>
+    <row r="13" spans="1:13">
+      <c r="A13" s="47"/>
       <c r="B13" s="12">
         <v>22</v>
       </c>
-      <c r="C13" s="43" t="s">
+      <c r="C13" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="D13" s="43"/>
+      <c r="D13" s="42"/>
       <c r="E13" s="15">
         <f>VLOOKUP(C13,RA!B16:D43,3,0)</f>
         <v>429030.11200000002</v>
@@ -53922,15 +53988,15 @@
       </c>
       <c r="M13" s="32"/>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A14" s="45"/>
+    <row r="14" spans="1:13">
+      <c r="A14" s="47"/>
       <c r="B14" s="12">
         <v>23</v>
       </c>
-      <c r="C14" s="43" t="s">
+      <c r="C14" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="D14" s="43"/>
+      <c r="D14" s="42"/>
       <c r="E14" s="15">
         <f>VLOOKUP(C14,RA!B18:D43,3,0)</f>
         <v>1615135.003</v>
@@ -53965,15 +54031,15 @@
       </c>
       <c r="M14" s="32"/>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A15" s="45"/>
+    <row r="15" spans="1:13">
+      <c r="A15" s="47"/>
       <c r="B15" s="12">
         <v>24</v>
       </c>
-      <c r="C15" s="43" t="s">
+      <c r="C15" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="D15" s="43"/>
+      <c r="D15" s="42"/>
       <c r="E15" s="15">
         <f>VLOOKUP(C15,RA!B18:D44,3,0)</f>
         <v>557779.54229999997</v>
@@ -54008,15 +54074,15 @@
       </c>
       <c r="M15" s="32"/>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A16" s="45"/>
+    <row r="16" spans="1:13">
+      <c r="A16" s="47"/>
       <c r="B16" s="12">
         <v>25</v>
       </c>
-      <c r="C16" s="43" t="s">
+      <c r="C16" s="42" t="s">
         <v>18</v>
       </c>
-      <c r="D16" s="43"/>
+      <c r="D16" s="42"/>
       <c r="E16" s="15">
         <f>VLOOKUP(C16,RA!B20:D45,3,0)</f>
         <v>1035917.205</v>
@@ -54051,15 +54117,15 @@
       </c>
       <c r="M16" s="32"/>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A17" s="45"/>
+    <row r="17" spans="1:13">
+      <c r="A17" s="47"/>
       <c r="B17" s="12">
         <v>26</v>
       </c>
-      <c r="C17" s="43" t="s">
+      <c r="C17" s="42" t="s">
         <v>19</v>
       </c>
-      <c r="D17" s="43"/>
+      <c r="D17" s="42"/>
       <c r="E17" s="15">
         <f>VLOOKUP(C17,RA!B20:D46,3,0)</f>
         <v>334598.66139999998</v>
@@ -54094,15 +54160,15 @@
       </c>
       <c r="M17" s="32"/>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A18" s="45"/>
+    <row r="18" spans="1:13">
+      <c r="A18" s="47"/>
       <c r="B18" s="12">
         <v>27</v>
       </c>
-      <c r="C18" s="43" t="s">
+      <c r="C18" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="D18" s="43"/>
+      <c r="D18" s="42"/>
       <c r="E18" s="15">
         <f>VLOOKUP(C18,RA!B22:D47,3,0)</f>
         <v>1106626.0767000001</v>
@@ -54137,15 +54203,15 @@
       </c>
       <c r="M18" s="32"/>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A19" s="45"/>
+    <row r="19" spans="1:13">
+      <c r="A19" s="47"/>
       <c r="B19" s="12">
         <v>29</v>
       </c>
-      <c r="C19" s="43" t="s">
+      <c r="C19" s="42" t="s">
         <v>21</v>
       </c>
-      <c r="D19" s="43"/>
+      <c r="D19" s="42"/>
       <c r="E19" s="15">
         <f>VLOOKUP(C19,RA!B22:D48,3,0)</f>
         <v>2866182.0125000002</v>
@@ -54180,15 +54246,15 @@
       </c>
       <c r="M19" s="32"/>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A20" s="45"/>
+    <row r="20" spans="1:13">
+      <c r="A20" s="47"/>
       <c r="B20" s="12">
         <v>31</v>
       </c>
-      <c r="C20" s="43" t="s">
+      <c r="C20" s="42" t="s">
         <v>22</v>
       </c>
-      <c r="D20" s="43"/>
+      <c r="D20" s="42"/>
       <c r="E20" s="15">
         <f>VLOOKUP(C20,RA!B24:D49,3,0)</f>
         <v>220378.93460000001</v>
@@ -54223,15 +54289,15 @@
       </c>
       <c r="M20" s="32"/>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A21" s="45"/>
+    <row r="21" spans="1:13">
+      <c r="A21" s="47"/>
       <c r="B21" s="12">
         <v>32</v>
       </c>
-      <c r="C21" s="43" t="s">
+      <c r="C21" s="42" t="s">
         <v>23</v>
       </c>
-      <c r="D21" s="43"/>
+      <c r="D21" s="42"/>
       <c r="E21" s="15">
         <f>VLOOKUP(C21,RA!B24:D50,3,0)</f>
         <v>231621.56899999999</v>
@@ -54266,15 +54332,15 @@
       </c>
       <c r="M21" s="32"/>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A22" s="45"/>
+    <row r="22" spans="1:13">
+      <c r="A22" s="47"/>
       <c r="B22" s="12">
         <v>33</v>
       </c>
-      <c r="C22" s="43" t="s">
+      <c r="C22" s="42" t="s">
         <v>24</v>
       </c>
-      <c r="D22" s="43"/>
+      <c r="D22" s="42"/>
       <c r="E22" s="15">
         <f>VLOOKUP(C22,RA!B26:D51,3,0)</f>
         <v>584353.51439999999</v>
@@ -54309,15 +54375,15 @@
       </c>
       <c r="M22" s="32"/>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A23" s="45"/>
+    <row r="23" spans="1:13">
+      <c r="A23" s="47"/>
       <c r="B23" s="12">
         <v>34</v>
       </c>
-      <c r="C23" s="43" t="s">
+      <c r="C23" s="42" t="s">
         <v>25</v>
       </c>
-      <c r="D23" s="43"/>
+      <c r="D23" s="42"/>
       <c r="E23" s="15">
         <f>VLOOKUP(C23,RA!B26:D52,3,0)</f>
         <v>220407.13</v>
@@ -54352,15 +54418,15 @@
       </c>
       <c r="M23" s="32"/>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A24" s="45"/>
+    <row r="24" spans="1:13">
+      <c r="A24" s="47"/>
       <c r="B24" s="12">
         <v>35</v>
       </c>
-      <c r="C24" s="43" t="s">
+      <c r="C24" s="42" t="s">
         <v>26</v>
       </c>
-      <c r="D24" s="43"/>
+      <c r="D24" s="42"/>
       <c r="E24" s="15">
         <f>VLOOKUP(C24,RA!B28:D53,3,0)</f>
         <v>824125.09609999997</v>
@@ -54395,15 +54461,15 @@
       </c>
       <c r="M24" s="32"/>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A25" s="45"/>
+    <row r="25" spans="1:13">
+      <c r="A25" s="47"/>
       <c r="B25" s="12">
         <v>36</v>
       </c>
-      <c r="C25" s="43" t="s">
+      <c r="C25" s="42" t="s">
         <v>27</v>
       </c>
-      <c r="D25" s="43"/>
+      <c r="D25" s="42"/>
       <c r="E25" s="15">
         <f>VLOOKUP(C25,RA!B28:D54,3,0)</f>
         <v>858665.74609999999</v>
@@ -54438,15 +54504,15 @@
       </c>
       <c r="M25" s="32"/>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A26" s="45"/>
+    <row r="26" spans="1:13">
+      <c r="A26" s="47"/>
       <c r="B26" s="12">
         <v>37</v>
       </c>
-      <c r="C26" s="43" t="s">
+      <c r="C26" s="42" t="s">
         <v>71</v>
       </c>
-      <c r="D26" s="43"/>
+      <c r="D26" s="42"/>
       <c r="E26" s="15">
         <f>VLOOKUP(C26,RA!B30:D55,3,0)</f>
         <v>1442708.791</v>
@@ -54481,15 +54547,15 @@
       </c>
       <c r="M26" s="32"/>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A27" s="45"/>
+    <row r="27" spans="1:13">
+      <c r="A27" s="47"/>
       <c r="B27" s="12">
         <v>38</v>
       </c>
-      <c r="C27" s="43" t="s">
+      <c r="C27" s="42" t="s">
         <v>29</v>
       </c>
-      <c r="D27" s="43"/>
+      <c r="D27" s="42"/>
       <c r="E27" s="15">
         <f>VLOOKUP(C27,RA!B30:D56,3,0)</f>
         <v>788785.47120000003</v>
@@ -54524,15 +54590,15 @@
       </c>
       <c r="M27" s="32"/>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A28" s="45"/>
+    <row r="28" spans="1:13">
+      <c r="A28" s="47"/>
       <c r="B28" s="12">
         <v>39</v>
       </c>
-      <c r="C28" s="43" t="s">
+      <c r="C28" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="D28" s="43"/>
+      <c r="D28" s="42"/>
       <c r="E28" s="15">
         <f>VLOOKUP(C28,RA!B32:D57,3,0)</f>
         <v>105876.62239999999</v>
@@ -54567,15 +54633,15 @@
       </c>
       <c r="M28" s="32"/>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A29" s="45"/>
+    <row r="29" spans="1:13">
+      <c r="A29" s="47"/>
       <c r="B29" s="12">
         <v>40</v>
       </c>
-      <c r="C29" s="43" t="s">
+      <c r="C29" s="42" t="s">
         <v>73</v>
       </c>
-      <c r="D29" s="43"/>
+      <c r="D29" s="42"/>
       <c r="E29" s="15">
         <f>VLOOKUP(C29,RA!B32:D58,3,0)</f>
         <v>0</v>
@@ -54610,15 +54676,15 @@
       </c>
       <c r="M29" s="32"/>
     </row>
-    <row r="30" spans="1:13" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="45"/>
+    <row r="30" spans="1:13" ht="12" thickBot="1">
+      <c r="A30" s="47"/>
       <c r="B30" s="12">
         <v>42</v>
       </c>
-      <c r="C30" s="43" t="s">
+      <c r="C30" s="42" t="s">
         <v>31</v>
       </c>
-      <c r="D30" s="43"/>
+      <c r="D30" s="42"/>
       <c r="E30" s="15">
         <f>VLOOKUP(C30,RA!B34:D60,3,0)</f>
         <v>135770.32740000001</v>
@@ -54653,15 +54719,15 @@
       </c>
       <c r="M30" s="32"/>
     </row>
-    <row r="31" spans="1:13" s="35" customFormat="1" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="45"/>
+    <row r="31" spans="1:13" s="35" customFormat="1" ht="12" thickBot="1">
+      <c r="A31" s="47"/>
       <c r="B31" s="12">
         <v>70</v>
       </c>
-      <c r="C31" s="46" t="s">
+      <c r="C31" s="48" t="s">
         <v>68</v>
       </c>
-      <c r="D31" s="47"/>
+      <c r="D31" s="49"/>
       <c r="E31" s="15">
         <f>VLOOKUP(C31,RA!B34:D61,3,0)</f>
         <v>159981.12</v>
@@ -54695,15 +54761,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A32" s="45"/>
+    <row r="32" spans="1:13">
+      <c r="A32" s="47"/>
       <c r="B32" s="12">
         <v>71</v>
       </c>
-      <c r="C32" s="43" t="s">
+      <c r="C32" s="42" t="s">
         <v>35</v>
       </c>
-      <c r="D32" s="43"/>
+      <c r="D32" s="42"/>
       <c r="E32" s="15">
         <f>VLOOKUP(C32,RA!B34:D61,3,0)</f>
         <v>312291.67</v>
@@ -54738,15 +54804,15 @@
       </c>
       <c r="M32" s="32"/>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A33" s="45"/>
+    <row r="33" spans="1:13">
+      <c r="A33" s="47"/>
       <c r="B33" s="12">
         <v>72</v>
       </c>
-      <c r="C33" s="43" t="s">
+      <c r="C33" s="42" t="s">
         <v>36</v>
       </c>
-      <c r="D33" s="43"/>
+      <c r="D33" s="42"/>
       <c r="E33" s="15">
         <f>VLOOKUP(C33,RA!B34:D62,3,0)</f>
         <v>161147.9</v>
@@ -54781,15 +54847,15 @@
       </c>
       <c r="M33" s="32"/>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A34" s="45"/>
+    <row r="34" spans="1:13">
+      <c r="A34" s="47"/>
       <c r="B34" s="12">
         <v>73</v>
       </c>
-      <c r="C34" s="43" t="s">
+      <c r="C34" s="42" t="s">
         <v>37</v>
       </c>
-      <c r="D34" s="43"/>
+      <c r="D34" s="42"/>
       <c r="E34" s="15">
         <f>VLOOKUP(C34,RA!B34:D63,3,0)</f>
         <v>211272</v>
@@ -54824,15 +54890,15 @@
       </c>
       <c r="M34" s="32"/>
     </row>
-    <row r="35" spans="1:13" s="35" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="45"/>
+    <row r="35" spans="1:13" s="35" customFormat="1">
+      <c r="A35" s="47"/>
       <c r="B35" s="12">
         <v>74</v>
       </c>
-      <c r="C35" s="43" t="s">
+      <c r="C35" s="42" t="s">
         <v>69</v>
       </c>
-      <c r="D35" s="43"/>
+      <c r="D35" s="42"/>
       <c r="E35" s="15">
         <f>VLOOKUP(C35,RA!B35:D64,3,0)</f>
         <v>0</v>
@@ -54866,15 +54932,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="45"/>
+    <row r="36" spans="1:13" ht="11.25" customHeight="1">
+      <c r="A36" s="47"/>
       <c r="B36" s="12">
         <v>75</v>
       </c>
-      <c r="C36" s="43" t="s">
+      <c r="C36" s="42" t="s">
         <v>32</v>
       </c>
-      <c r="D36" s="43"/>
+      <c r="D36" s="42"/>
       <c r="E36" s="15">
         <f>VLOOKUP(C36,RA!B8:D64,3,0)</f>
         <v>43661.538200000003</v>
@@ -54909,15 +54975,15 @@
       </c>
       <c r="M36" s="32"/>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A37" s="45"/>
+    <row r="37" spans="1:13">
+      <c r="A37" s="47"/>
       <c r="B37" s="12">
         <v>76</v>
       </c>
-      <c r="C37" s="43" t="s">
+      <c r="C37" s="42" t="s">
         <v>33</v>
       </c>
-      <c r="D37" s="43"/>
+      <c r="D37" s="42"/>
       <c r="E37" s="15">
         <f>VLOOKUP(C37,RA!B8:D65,3,0)</f>
         <v>291475.11900000001</v>
@@ -54952,15 +55018,15 @@
       </c>
       <c r="M37" s="32"/>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A38" s="45"/>
+    <row r="38" spans="1:13">
+      <c r="A38" s="47"/>
       <c r="B38" s="12">
         <v>77</v>
       </c>
-      <c r="C38" s="43" t="s">
+      <c r="C38" s="42" t="s">
         <v>38</v>
       </c>
-      <c r="D38" s="43"/>
+      <c r="D38" s="42"/>
       <c r="E38" s="15">
         <f>VLOOKUP(C38,RA!B9:D66,3,0)</f>
         <v>177360.74</v>
@@ -54995,15 +55061,15 @@
       </c>
       <c r="M38" s="32"/>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A39" s="45"/>
+    <row r="39" spans="1:13">
+      <c r="A39" s="47"/>
       <c r="B39" s="12">
         <v>78</v>
       </c>
-      <c r="C39" s="43" t="s">
+      <c r="C39" s="42" t="s">
         <v>39</v>
       </c>
-      <c r="D39" s="43"/>
+      <c r="D39" s="42"/>
       <c r="E39" s="15">
         <f>VLOOKUP(C39,RA!B10:D67,3,0)</f>
         <v>61870.99</v>
@@ -55038,26 +55104,26 @@
       </c>
       <c r="M39" s="32"/>
     </row>
-    <row r="40" spans="1:13" s="36" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="45"/>
+    <row r="40" spans="1:13" s="36" customFormat="1">
+      <c r="A40" s="47"/>
       <c r="B40" s="12">
         <v>9101</v>
       </c>
-      <c r="C40" s="48" t="s">
+      <c r="C40" s="43" t="s">
         <v>75</v>
       </c>
-      <c r="D40" s="49"/>
+      <c r="D40" s="44"/>
       <c r="E40" s="15">
         <f>VLOOKUP(C40,RA!B11:D68,3,0)</f>
-        <v>0</v>
+        <v>85.470100000000002</v>
       </c>
       <c r="F40" s="25">
         <f>VLOOKUP(C40,RA!B11:I72,8,0)</f>
-        <v>0</v>
+        <v>85.47</v>
       </c>
       <c r="G40" s="16">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1.0000000000331966E-4</v>
       </c>
       <c r="H40" s="27">
         <f>RA!J39</f>
@@ -55073,22 +55139,22 @@
       </c>
       <c r="K40" s="22">
         <f t="shared" si="1"/>
-        <v>-85.470100000000002</v>
+        <v>0</v>
       </c>
       <c r="L40" s="22">
         <f t="shared" si="2"/>
-        <v>-1E-4</v>
+        <v>3.3196508692975857E-15</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A41" s="45"/>
+    <row r="41" spans="1:13">
+      <c r="A41" s="47"/>
       <c r="B41" s="12">
         <v>99</v>
       </c>
-      <c r="C41" s="43" t="s">
+      <c r="C41" s="42" t="s">
         <v>34</v>
       </c>
-      <c r="D41" s="43"/>
+      <c r="D41" s="42"/>
       <c r="E41" s="15">
         <f>VLOOKUP(C41,RA!B8:D68,3,0)</f>
         <v>3296.5131999999999</v>
@@ -55125,31 +55191,6 @@
     </row>
   </sheetData>
   <mergeCells count="41">
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="C41:D41"/>
-    <mergeCell ref="C39:D39"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="C40:D40"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="C5:D5"/>
@@ -55166,6 +55207,31 @@
     <mergeCell ref="C35:D35"/>
     <mergeCell ref="C29:D29"/>
     <mergeCell ref="C27:D27"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C40:D40"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C21:D21"/>
   </mergeCells>
   <phoneticPr fontId="32" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -55174,15 +55240,15 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:W45"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:W45"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="11.25"/>
   <cols>
     <col min="1" max="1" width="8.85546875" style="41" customWidth="1"/>
     <col min="2" max="3" width="9.140625" style="41"/>
@@ -55203,2485 +55269,2501 @@
     <col min="23" max="16384" width="9.140625" style="41"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A1" s="52"/>
-      <c r="B1" s="52"/>
-      <c r="C1" s="52"/>
-      <c r="D1" s="52"/>
-      <c r="E1" s="52"/>
-      <c r="F1" s="52"/>
-      <c r="G1" s="52"/>
-      <c r="H1" s="52"/>
-      <c r="I1" s="52"/>
-      <c r="J1" s="52"/>
-      <c r="K1" s="52"/>
-      <c r="L1" s="52"/>
-      <c r="M1" s="52"/>
-      <c r="N1" s="52"/>
-      <c r="O1" s="52"/>
-      <c r="P1" s="52"/>
-      <c r="Q1" s="52"/>
-      <c r="R1" s="52"/>
-      <c r="S1" s="52"/>
-      <c r="T1" s="52"/>
-      <c r="U1" s="52"/>
-      <c r="V1" s="64" t="s">
+    <row r="1" spans="1:23" ht="12.75">
+      <c r="A1" s="50"/>
+      <c r="B1" s="50"/>
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
+      <c r="E1" s="50"/>
+      <c r="F1" s="50"/>
+      <c r="G1" s="50"/>
+      <c r="H1" s="50"/>
+      <c r="I1" s="50"/>
+      <c r="J1" s="50"/>
+      <c r="K1" s="50"/>
+      <c r="L1" s="50"/>
+      <c r="M1" s="50"/>
+      <c r="N1" s="50"/>
+      <c r="O1" s="50"/>
+      <c r="P1" s="50"/>
+      <c r="Q1" s="50"/>
+      <c r="R1" s="50"/>
+      <c r="S1" s="50"/>
+      <c r="T1" s="50"/>
+      <c r="U1" s="50"/>
+      <c r="V1" s="51" t="s">
         <v>45</v>
       </c>
-      <c r="W1" s="61"/>
+      <c r="W1" s="52"/>
     </row>
-    <row r="2" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A2" s="52"/>
-      <c r="B2" s="52"/>
-      <c r="C2" s="52"/>
-      <c r="D2" s="52"/>
-      <c r="E2" s="52"/>
-      <c r="F2" s="52"/>
-      <c r="G2" s="52"/>
-      <c r="H2" s="52"/>
-      <c r="I2" s="52"/>
-      <c r="J2" s="52"/>
-      <c r="K2" s="52"/>
-      <c r="L2" s="52"/>
-      <c r="M2" s="52"/>
-      <c r="N2" s="52"/>
-      <c r="O2" s="52"/>
-      <c r="P2" s="52"/>
-      <c r="Q2" s="52"/>
-      <c r="R2" s="52"/>
-      <c r="S2" s="52"/>
-      <c r="T2" s="52"/>
-      <c r="U2" s="52"/>
-      <c r="V2" s="64"/>
-      <c r="W2" s="61"/>
+    <row r="2" spans="1:23" ht="12.75">
+      <c r="A2" s="50"/>
+      <c r="B2" s="50"/>
+      <c r="C2" s="50"/>
+      <c r="D2" s="50"/>
+      <c r="E2" s="50"/>
+      <c r="F2" s="50"/>
+      <c r="G2" s="50"/>
+      <c r="H2" s="50"/>
+      <c r="I2" s="50"/>
+      <c r="J2" s="50"/>
+      <c r="K2" s="50"/>
+      <c r="L2" s="50"/>
+      <c r="M2" s="50"/>
+      <c r="N2" s="50"/>
+      <c r="O2" s="50"/>
+      <c r="P2" s="50"/>
+      <c r="Q2" s="50"/>
+      <c r="R2" s="50"/>
+      <c r="S2" s="50"/>
+      <c r="T2" s="50"/>
+      <c r="U2" s="50"/>
+      <c r="V2" s="51"/>
+      <c r="W2" s="52"/>
     </row>
-    <row r="3" spans="1:23" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="52"/>
-      <c r="B3" s="52"/>
-      <c r="C3" s="52"/>
-      <c r="D3" s="52"/>
-      <c r="E3" s="52"/>
-      <c r="F3" s="52"/>
-      <c r="G3" s="52"/>
-      <c r="H3" s="52"/>
-      <c r="I3" s="52"/>
-      <c r="J3" s="52"/>
-      <c r="K3" s="52"/>
-      <c r="L3" s="52"/>
-      <c r="M3" s="52"/>
-      <c r="N3" s="52"/>
-      <c r="O3" s="52"/>
-      <c r="P3" s="52"/>
-      <c r="Q3" s="52"/>
-      <c r="R3" s="52"/>
-      <c r="S3" s="52"/>
-      <c r="T3" s="52"/>
-      <c r="U3" s="52"/>
-      <c r="V3" s="65" t="s">
+    <row r="3" spans="1:23" ht="23.25" thickBot="1">
+      <c r="A3" s="50"/>
+      <c r="B3" s="50"/>
+      <c r="C3" s="50"/>
+      <c r="D3" s="50"/>
+      <c r="E3" s="50"/>
+      <c r="F3" s="50"/>
+      <c r="G3" s="50"/>
+      <c r="H3" s="50"/>
+      <c r="I3" s="50"/>
+      <c r="J3" s="50"/>
+      <c r="K3" s="50"/>
+      <c r="L3" s="50"/>
+      <c r="M3" s="50"/>
+      <c r="N3" s="50"/>
+      <c r="O3" s="50"/>
+      <c r="P3" s="50"/>
+      <c r="Q3" s="50"/>
+      <c r="R3" s="50"/>
+      <c r="S3" s="50"/>
+      <c r="T3" s="50"/>
+      <c r="U3" s="50"/>
+      <c r="V3" s="53" t="s">
         <v>46</v>
       </c>
-      <c r="W3" s="61"/>
+      <c r="W3" s="52"/>
     </row>
-    <row r="4" spans="1:23" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="50"/>
-      <c r="B4" s="50"/>
-      <c r="C4" s="50"/>
-      <c r="D4" s="50"/>
-      <c r="E4" s="50"/>
-      <c r="F4" s="50"/>
-      <c r="G4" s="50"/>
-      <c r="H4" s="50"/>
-      <c r="I4" s="50"/>
-      <c r="J4" s="50"/>
-      <c r="K4" s="50"/>
-      <c r="L4" s="50"/>
-      <c r="M4" s="50"/>
-      <c r="N4" s="50"/>
-      <c r="O4" s="50"/>
-      <c r="P4" s="50"/>
-      <c r="Q4" s="50"/>
-      <c r="R4" s="50"/>
-      <c r="S4" s="50"/>
-      <c r="T4" s="50"/>
-      <c r="U4" s="50"/>
-      <c r="V4" s="63"/>
-      <c r="W4" s="61"/>
+    <row r="4" spans="1:23" ht="12.75" thickTop="1" thickBot="1">
+      <c r="A4" s="54"/>
+      <c r="B4" s="54"/>
+      <c r="C4" s="54"/>
+      <c r="D4" s="54"/>
+      <c r="E4" s="54"/>
+      <c r="F4" s="54"/>
+      <c r="G4" s="54"/>
+      <c r="H4" s="54"/>
+      <c r="I4" s="54"/>
+      <c r="J4" s="54"/>
+      <c r="K4" s="54"/>
+      <c r="L4" s="54"/>
+      <c r="M4" s="54"/>
+      <c r="N4" s="54"/>
+      <c r="O4" s="54"/>
+      <c r="P4" s="54"/>
+      <c r="Q4" s="54"/>
+      <c r="R4" s="54"/>
+      <c r="S4" s="54"/>
+      <c r="T4" s="54"/>
+      <c r="U4" s="54"/>
+      <c r="W4" s="52"/>
     </row>
-    <row r="5" spans="1:23" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="66"/>
-      <c r="B5" s="67"/>
-      <c r="C5" s="68"/>
-      <c r="D5" s="69" t="s">
+    <row r="5" spans="1:23" ht="22.5" thickTop="1" thickBot="1">
+      <c r="A5" s="55"/>
+      <c r="B5" s="56"/>
+      <c r="C5" s="57"/>
+      <c r="D5" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="E5" s="69" t="s">
+      <c r="E5" s="58" t="s">
         <v>58</v>
       </c>
-      <c r="F5" s="69" t="s">
+      <c r="F5" s="58" t="s">
         <v>59</v>
       </c>
-      <c r="G5" s="69" t="s">
+      <c r="G5" s="58" t="s">
         <v>47</v>
       </c>
-      <c r="H5" s="69" t="s">
+      <c r="H5" s="58" t="s">
         <v>48</v>
       </c>
-      <c r="I5" s="69" t="s">
+      <c r="I5" s="58" t="s">
         <v>1</v>
       </c>
-      <c r="J5" s="69" t="s">
+      <c r="J5" s="58" t="s">
         <v>2</v>
       </c>
-      <c r="K5" s="69" t="s">
+      <c r="K5" s="58" t="s">
         <v>49</v>
       </c>
-      <c r="L5" s="69" t="s">
+      <c r="L5" s="58" t="s">
         <v>50</v>
       </c>
-      <c r="M5" s="69" t="s">
+      <c r="M5" s="58" t="s">
         <v>51</v>
       </c>
-      <c r="N5" s="69" t="s">
+      <c r="N5" s="58" t="s">
         <v>52</v>
       </c>
-      <c r="O5" s="69" t="s">
+      <c r="O5" s="58" t="s">
         <v>53</v>
       </c>
-      <c r="P5" s="69" t="s">
+      <c r="P5" s="58" t="s">
         <v>60</v>
       </c>
-      <c r="Q5" s="69" t="s">
+      <c r="Q5" s="58" t="s">
         <v>61</v>
       </c>
-      <c r="R5" s="69" t="s">
+      <c r="R5" s="58" t="s">
         <v>54</v>
       </c>
-      <c r="S5" s="69" t="s">
+      <c r="S5" s="58" t="s">
         <v>55</v>
       </c>
-      <c r="T5" s="69" t="s">
+      <c r="T5" s="58" t="s">
         <v>56</v>
       </c>
-      <c r="U5" s="70" t="s">
+      <c r="U5" s="59" t="s">
         <v>57</v>
       </c>
-      <c r="V5" s="63"/>
-      <c r="W5" s="63"/>
     </row>
-    <row r="6" spans="1:23" ht="14.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="71" t="s">
+    <row r="6" spans="1:23" ht="12" thickBot="1">
+      <c r="A6" s="60" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="60" t="s">
+      <c r="B6" s="61" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="59"/>
-      <c r="D6" s="71"/>
-      <c r="E6" s="71"/>
-      <c r="F6" s="71"/>
-      <c r="G6" s="71"/>
-      <c r="H6" s="71"/>
-      <c r="I6" s="71"/>
-      <c r="J6" s="71"/>
-      <c r="K6" s="71"/>
-      <c r="L6" s="71"/>
-      <c r="M6" s="71"/>
-      <c r="N6" s="71"/>
-      <c r="O6" s="71"/>
-      <c r="P6" s="71"/>
-      <c r="Q6" s="71"/>
-      <c r="R6" s="71"/>
-      <c r="S6" s="71"/>
-      <c r="T6" s="71"/>
-      <c r="U6" s="72"/>
-      <c r="V6" s="63"/>
-      <c r="W6" s="63"/>
+      <c r="C6" s="62"/>
+      <c r="D6" s="60"/>
+      <c r="E6" s="60"/>
+      <c r="F6" s="60"/>
+      <c r="G6" s="60"/>
+      <c r="H6" s="60"/>
+      <c r="I6" s="60"/>
+      <c r="J6" s="60"/>
+      <c r="K6" s="60"/>
+      <c r="L6" s="60"/>
+      <c r="M6" s="60"/>
+      <c r="N6" s="60"/>
+      <c r="O6" s="60"/>
+      <c r="P6" s="60"/>
+      <c r="Q6" s="60"/>
+      <c r="R6" s="60"/>
+      <c r="S6" s="60"/>
+      <c r="T6" s="60"/>
+      <c r="U6" s="63"/>
     </row>
-    <row r="7" spans="1:23" ht="14.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="58" t="s">
+    <row r="7" spans="1:23" ht="12" thickBot="1">
+      <c r="A7" s="64" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="57"/>
-      <c r="C7" s="56"/>
-      <c r="D7" s="73">
-        <v>16899950.927200001</v>
-      </c>
-      <c r="E7" s="73">
+      <c r="B7" s="65"/>
+      <c r="C7" s="66"/>
+      <c r="D7" s="67">
+        <v>16900036.397300001</v>
+      </c>
+      <c r="E7" s="67">
         <v>18350275.928199999</v>
       </c>
-      <c r="F7" s="74">
-        <v>92.096440365939202</v>
-      </c>
-      <c r="G7" s="73">
+      <c r="F7" s="68">
+        <v>92.096906136047096</v>
+      </c>
+      <c r="G7" s="67">
         <v>13220983.8342</v>
       </c>
-      <c r="H7" s="74">
-        <v>27.826727111512401</v>
-      </c>
-      <c r="I7" s="73">
-        <v>953586.36300000001</v>
-      </c>
-      <c r="J7" s="74">
-        <v>5.6425392423195104</v>
-      </c>
-      <c r="K7" s="73">
+      <c r="H7" s="68">
+        <v>27.8273735845818</v>
+      </c>
+      <c r="I7" s="67">
+        <v>953671.83299999998</v>
+      </c>
+      <c r="J7" s="68">
+        <v>5.6430164443454203</v>
+      </c>
+      <c r="K7" s="67">
         <v>1621282.621</v>
       </c>
-      <c r="L7" s="74">
+      <c r="L7" s="68">
         <v>12.262949878253901</v>
       </c>
-      <c r="M7" s="74">
-        <v>-0.41183211942910197</v>
-      </c>
-      <c r="N7" s="73">
-        <v>361858751.0352</v>
-      </c>
-      <c r="O7" s="73">
-        <v>2694644013.1609001</v>
-      </c>
-      <c r="P7" s="73">
+      <c r="M7" s="68">
+        <v>-0.411779401908484</v>
+      </c>
+      <c r="N7" s="67">
+        <v>361859579.8387</v>
+      </c>
+      <c r="O7" s="67">
+        <v>2694644841.9643998</v>
+      </c>
+      <c r="P7" s="67">
         <v>886947</v>
       </c>
-      <c r="Q7" s="73">
+      <c r="Q7" s="67">
         <v>829334</v>
       </c>
-      <c r="R7" s="74">
+      <c r="R7" s="68">
         <v>6.94689956037013</v>
       </c>
-      <c r="S7" s="73">
-        <v>19.054070792505101</v>
-      </c>
-      <c r="T7" s="73">
-        <v>17.228207661328302</v>
-      </c>
-      <c r="U7" s="75">
-        <v>9.5825356747127692</v>
-      </c>
-      <c r="V7" s="63"/>
-      <c r="W7" s="63"/>
+      <c r="S7" s="67">
+        <v>19.054167156887601</v>
+      </c>
+      <c r="T7" s="67">
+        <v>17.229083866451901</v>
+      </c>
+      <c r="U7" s="69">
+        <v>9.5783944551783602</v>
+      </c>
     </row>
-    <row r="8" spans="1:23" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="53">
+    <row r="8" spans="1:23" ht="12" thickBot="1">
+      <c r="A8" s="70">
         <v>42482</v>
       </c>
-      <c r="B8" s="62" t="s">
+      <c r="B8" s="48" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="51"/>
-      <c r="D8" s="76">
+      <c r="C8" s="49"/>
+      <c r="D8" s="71">
         <v>473097.33760000003</v>
       </c>
-      <c r="E8" s="76">
+      <c r="E8" s="71">
         <v>821871.15549999999</v>
       </c>
-      <c r="F8" s="77">
+      <c r="F8" s="72">
         <v>57.563443422245797</v>
       </c>
-      <c r="G8" s="76">
+      <c r="G8" s="71">
         <v>485032.0036</v>
       </c>
-      <c r="H8" s="77">
+      <c r="H8" s="72">
         <v>-2.4605935095867202</v>
       </c>
-      <c r="I8" s="76">
+      <c r="I8" s="71">
         <v>100169.53509999999</v>
       </c>
-      <c r="J8" s="77">
+      <c r="J8" s="72">
         <v>21.173134393052202</v>
       </c>
-      <c r="K8" s="76">
+      <c r="K8" s="71">
         <v>113097.68429999999</v>
       </c>
-      <c r="L8" s="77">
+      <c r="L8" s="72">
         <v>23.317571512924399</v>
       </c>
-      <c r="M8" s="77">
+      <c r="M8" s="72">
         <v>-0.11430958361364101</v>
       </c>
-      <c r="N8" s="76">
+      <c r="N8" s="71">
         <v>13086931.6412</v>
       </c>
-      <c r="O8" s="76">
+      <c r="O8" s="71">
         <v>102472927.43799999</v>
       </c>
-      <c r="P8" s="76">
+      <c r="P8" s="71">
         <v>21329</v>
       </c>
-      <c r="Q8" s="76">
+      <c r="Q8" s="71">
         <v>20494</v>
       </c>
-      <c r="R8" s="77">
+      <c r="R8" s="72">
         <v>4.07436322826194</v>
       </c>
-      <c r="S8" s="76">
+      <c r="S8" s="71">
         <v>22.180943204088301</v>
       </c>
-      <c r="T8" s="76">
+      <c r="T8" s="71">
         <v>22.127832843759101</v>
       </c>
-      <c r="U8" s="78">
+      <c r="U8" s="73">
         <v>0.23944139724136099</v>
       </c>
-      <c r="V8" s="63"/>
-      <c r="W8" s="63"/>
     </row>
-    <row r="9" spans="1:23" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="54"/>
-      <c r="B9" s="62" t="s">
+    <row r="9" spans="1:23" ht="12" thickBot="1">
+      <c r="A9" s="74"/>
+      <c r="B9" s="48" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="51"/>
-      <c r="D9" s="76">
+      <c r="C9" s="49"/>
+      <c r="D9" s="71">
         <v>105200.4632</v>
       </c>
-      <c r="E9" s="76">
+      <c r="E9" s="71">
         <v>93248.438399999999</v>
       </c>
-      <c r="F9" s="77">
+      <c r="F9" s="72">
         <v>112.81739941716801</v>
       </c>
-      <c r="G9" s="76">
+      <c r="G9" s="71">
         <v>73041.315600000002</v>
       </c>
-      <c r="H9" s="77">
+      <c r="H9" s="72">
         <v>44.028708048078997</v>
       </c>
-      <c r="I9" s="76">
+      <c r="I9" s="71">
         <v>19928.703000000001</v>
       </c>
-      <c r="J9" s="77">
+      <c r="J9" s="72">
         <v>18.943550621172601</v>
       </c>
-      <c r="K9" s="76">
+      <c r="K9" s="71">
         <v>14957.0411</v>
       </c>
-      <c r="L9" s="77">
+      <c r="L9" s="72">
         <v>20.477507801078001</v>
       </c>
-      <c r="M9" s="77">
+      <c r="M9" s="72">
         <v>0.33239608467747001</v>
       </c>
-      <c r="N9" s="76">
+      <c r="N9" s="71">
         <v>2129857.5364000001</v>
       </c>
-      <c r="O9" s="76">
+      <c r="O9" s="71">
         <v>14087448.4904</v>
       </c>
-      <c r="P9" s="76">
+      <c r="P9" s="71">
         <v>4042</v>
       </c>
-      <c r="Q9" s="76">
+      <c r="Q9" s="71">
         <v>3275</v>
       </c>
-      <c r="R9" s="77">
+      <c r="R9" s="72">
         <v>23.419847328244298</v>
       </c>
-      <c r="S9" s="76">
+      <c r="S9" s="71">
         <v>26.026834042553201</v>
       </c>
-      <c r="T9" s="76">
+      <c r="T9" s="71">
         <v>22.5290598167939</v>
       </c>
-      <c r="U9" s="78">
+      <c r="U9" s="73">
         <v>13.4391075765901</v>
       </c>
-      <c r="V9" s="63"/>
-      <c r="W9" s="63"/>
     </row>
-    <row r="10" spans="1:23" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="54"/>
-      <c r="B10" s="62" t="s">
+    <row r="10" spans="1:23" ht="12" thickBot="1">
+      <c r="A10" s="74"/>
+      <c r="B10" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="51"/>
-      <c r="D10" s="76">
+      <c r="C10" s="49"/>
+      <c r="D10" s="71">
         <v>105924.4071</v>
       </c>
-      <c r="E10" s="76">
+      <c r="E10" s="71">
         <v>151982.33350000001</v>
       </c>
-      <c r="F10" s="77">
+      <c r="F10" s="72">
         <v>69.695210397595304</v>
       </c>
-      <c r="G10" s="76">
+      <c r="G10" s="71">
         <v>102660.8245</v>
       </c>
-      <c r="H10" s="77">
+      <c r="H10" s="72">
         <v>3.17899511901933</v>
       </c>
-      <c r="I10" s="76">
+      <c r="I10" s="71">
         <v>26995.4149</v>
       </c>
-      <c r="J10" s="77">
+      <c r="J10" s="72">
         <v>25.485547324814799</v>
       </c>
-      <c r="K10" s="76">
+      <c r="K10" s="71">
         <v>23924.631700000002</v>
       </c>
-      <c r="L10" s="77">
+      <c r="L10" s="72">
         <v>23.304538821427499</v>
       </c>
-      <c r="M10" s="77">
+      <c r="M10" s="72">
         <v>0.12835237083294401</v>
       </c>
-      <c r="N10" s="76">
+      <c r="N10" s="71">
         <v>3066539.48</v>
       </c>
-      <c r="O10" s="76">
+      <c r="O10" s="71">
         <v>24262645.074299999</v>
       </c>
-      <c r="P10" s="76">
+      <c r="P10" s="71">
         <v>92280</v>
       </c>
-      <c r="Q10" s="76">
+      <c r="Q10" s="71">
         <v>85017</v>
       </c>
-      <c r="R10" s="77">
+      <c r="R10" s="72">
         <v>8.5429972828963603</v>
       </c>
-      <c r="S10" s="76">
+      <c r="S10" s="71">
         <v>1.14785876788036</v>
       </c>
-      <c r="T10" s="76">
+      <c r="T10" s="71">
         <v>1.1344882105931799</v>
       </c>
-      <c r="U10" s="78">
+      <c r="U10" s="73">
         <v>1.16482599265052</v>
       </c>
-      <c r="V10" s="63"/>
-      <c r="W10" s="63"/>
     </row>
-    <row r="11" spans="1:23" ht="14.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="54"/>
-      <c r="B11" s="62" t="s">
+    <row r="11" spans="1:23" ht="12" thickBot="1">
+      <c r="A11" s="74"/>
+      <c r="B11" s="48" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="51"/>
-      <c r="D11" s="76">
+      <c r="C11" s="49"/>
+      <c r="D11" s="71">
         <v>37915.535100000001</v>
       </c>
-      <c r="E11" s="76">
+      <c r="E11" s="71">
         <v>87918.272700000001</v>
       </c>
-      <c r="F11" s="77">
+      <c r="F11" s="72">
         <v>43.125887185452001</v>
       </c>
-      <c r="G11" s="76">
+      <c r="G11" s="71">
         <v>40707.704899999997</v>
       </c>
-      <c r="H11" s="77">
+      <c r="H11" s="72">
         <v>-6.8590695713724799</v>
       </c>
-      <c r="I11" s="76">
+      <c r="I11" s="71">
         <v>9046.9362000000001</v>
       </c>
-      <c r="J11" s="77">
+      <c r="J11" s="72">
         <v>23.860763605575499</v>
       </c>
-      <c r="K11" s="76">
+      <c r="K11" s="71">
         <v>8919.6488000000008</v>
       </c>
-      <c r="L11" s="77">
+      <c r="L11" s="72">
         <v>21.9114509695682</v>
       </c>
-      <c r="M11" s="77">
+      <c r="M11" s="72">
         <v>1.427044975134E-2</v>
       </c>
-      <c r="N11" s="76">
+      <c r="N11" s="71">
         <v>1111610.1266000001</v>
       </c>
-      <c r="O11" s="76">
+      <c r="O11" s="71">
         <v>8153260.2973999996</v>
       </c>
-      <c r="P11" s="76">
+      <c r="P11" s="71">
         <v>1902</v>
       </c>
-      <c r="Q11" s="76">
+      <c r="Q11" s="71">
         <v>1939</v>
       </c>
-      <c r="R11" s="77">
+      <c r="R11" s="72">
         <v>-1.9082001031459499</v>
       </c>
-      <c r="S11" s="76">
+      <c r="S11" s="71">
         <v>19.934561041009498</v>
       </c>
-      <c r="T11" s="76">
+      <c r="T11" s="71">
         <v>21.255438576585899</v>
       </c>
-      <c r="U11" s="78">
+      <c r="U11" s="73">
         <v>-6.6260678269217603</v>
       </c>
-      <c r="V11" s="63"/>
-      <c r="W11" s="63"/>
     </row>
-    <row r="12" spans="1:23" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="54"/>
-      <c r="B12" s="62" t="s">
+    <row r="12" spans="1:23" ht="12" thickBot="1">
+      <c r="A12" s="74"/>
+      <c r="B12" s="48" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="51"/>
-      <c r="D12" s="76">
+      <c r="C12" s="49"/>
+      <c r="D12" s="71">
         <v>142748.51029999999</v>
       </c>
-      <c r="E12" s="76">
+      <c r="E12" s="71">
         <v>195161.47889999999</v>
       </c>
-      <c r="F12" s="77">
+      <c r="F12" s="72">
         <v>73.143794105569299</v>
       </c>
-      <c r="G12" s="76">
+      <c r="G12" s="71">
         <v>116664.32279999999</v>
       </c>
-      <c r="H12" s="77">
+      <c r="H12" s="72">
         <v>22.358324185120999</v>
       </c>
-      <c r="I12" s="76">
+      <c r="I12" s="71">
         <v>17006.7251</v>
       </c>
-      <c r="J12" s="77">
+      <c r="J12" s="72">
         <v>11.913767130920499</v>
       </c>
-      <c r="K12" s="76">
+      <c r="K12" s="71">
         <v>19647.4202</v>
       </c>
-      <c r="L12" s="77">
+      <c r="L12" s="72">
         <v>16.840984225899099</v>
       </c>
-      <c r="M12" s="77">
+      <c r="M12" s="72">
         <v>-0.13440416467501401</v>
       </c>
-      <c r="N12" s="76">
+      <c r="N12" s="71">
         <v>2784854.5750000002</v>
       </c>
-      <c r="O12" s="76">
+      <c r="O12" s="71">
         <v>26458894.281599998</v>
       </c>
-      <c r="P12" s="76">
+      <c r="P12" s="71">
         <v>1704</v>
       </c>
-      <c r="Q12" s="76">
+      <c r="Q12" s="71">
         <v>1307</v>
       </c>
-      <c r="R12" s="77">
+      <c r="R12" s="72">
         <v>30.374904361132401</v>
       </c>
-      <c r="S12" s="76">
+      <c r="S12" s="71">
         <v>83.772599941314596</v>
       </c>
-      <c r="T12" s="76">
+      <c r="T12" s="71">
         <v>90.834809793420007</v>
       </c>
-      <c r="U12" s="78">
+      <c r="U12" s="73">
         <v>-8.4302144818864093</v>
       </c>
-      <c r="V12" s="63"/>
-      <c r="W12" s="63"/>
     </row>
-    <row r="13" spans="1:23" ht="14.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="54"/>
-      <c r="B13" s="62" t="s">
+    <row r="13" spans="1:23" ht="12" thickBot="1">
+      <c r="A13" s="74"/>
+      <c r="B13" s="48" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="51"/>
-      <c r="D13" s="76">
+      <c r="C13" s="49"/>
+      <c r="D13" s="71">
         <v>235959.84049999999</v>
       </c>
-      <c r="E13" s="76">
+      <c r="E13" s="71">
         <v>291971.83199999999</v>
       </c>
-      <c r="F13" s="77">
+      <c r="F13" s="72">
         <v>80.815960527315497</v>
       </c>
-      <c r="G13" s="76">
+      <c r="G13" s="71">
         <v>197934.9933</v>
       </c>
-      <c r="H13" s="77">
+      <c r="H13" s="72">
         <v>19.210775500604701</v>
       </c>
-      <c r="I13" s="76">
+      <c r="I13" s="71">
         <v>21128.972699999998</v>
       </c>
-      <c r="J13" s="77">
+      <c r="J13" s="72">
         <v>8.95447829394511</v>
       </c>
-      <c r="K13" s="76">
+      <c r="K13" s="71">
         <v>55444.3433</v>
       </c>
-      <c r="L13" s="77">
+      <c r="L13" s="72">
         <v>28.011390192115201</v>
       </c>
-      <c r="M13" s="77">
+      <c r="M13" s="72">
         <v>-0.618915628855505</v>
       </c>
-      <c r="N13" s="76">
+      <c r="N13" s="71">
         <v>4686822.9793999996</v>
       </c>
-      <c r="O13" s="76">
+      <c r="O13" s="71">
         <v>44194338.688299999</v>
       </c>
-      <c r="P13" s="76">
+      <c r="P13" s="71">
         <v>11588</v>
       </c>
-      <c r="Q13" s="76">
+      <c r="Q13" s="71">
         <v>9092</v>
       </c>
-      <c r="R13" s="77">
+      <c r="R13" s="72">
         <v>27.452705675318999</v>
       </c>
-      <c r="S13" s="76">
+      <c r="S13" s="71">
         <v>20.362430143251601</v>
       </c>
-      <c r="T13" s="76">
+      <c r="T13" s="71">
         <v>20.5215607677079</v>
       </c>
-      <c r="U13" s="78">
+      <c r="U13" s="73">
         <v>-0.78149132169755697</v>
       </c>
-      <c r="V13" s="63"/>
-      <c r="W13" s="63"/>
     </row>
-    <row r="14" spans="1:23" ht="14.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="54"/>
-      <c r="B14" s="62" t="s">
+    <row r="14" spans="1:23" ht="12" thickBot="1">
+      <c r="A14" s="74"/>
+      <c r="B14" s="48" t="s">
         <v>12</v>
       </c>
-      <c r="C14" s="51"/>
-      <c r="D14" s="76">
+      <c r="C14" s="49"/>
+      <c r="D14" s="71">
         <v>150397.23569999999</v>
       </c>
-      <c r="E14" s="76">
+      <c r="E14" s="71">
         <v>168784.48850000001</v>
       </c>
-      <c r="F14" s="77">
+      <c r="F14" s="72">
         <v>89.106076652298498</v>
       </c>
-      <c r="G14" s="76">
+      <c r="G14" s="71">
         <v>112217.6786</v>
       </c>
-      <c r="H14" s="77">
+      <c r="H14" s="72">
         <v>34.022765019129501</v>
       </c>
-      <c r="I14" s="76">
+      <c r="I14" s="71">
         <v>-22715.978299999999</v>
       </c>
-      <c r="J14" s="77">
+      <c r="J14" s="72">
         <v>-15.1039865821151</v>
       </c>
-      <c r="K14" s="76">
+      <c r="K14" s="71">
         <v>21356.641800000001</v>
       </c>
-      <c r="L14" s="77">
+      <c r="L14" s="72">
         <v>19.031441450616501</v>
       </c>
-      <c r="M14" s="77">
+      <c r="M14" s="72">
         <v>-2.0636493561455</v>
       </c>
-      <c r="N14" s="76">
+      <c r="N14" s="71">
         <v>2825061.2919999999</v>
       </c>
-      <c r="O14" s="76">
+      <c r="O14" s="71">
         <v>19359205.2755</v>
       </c>
-      <c r="P14" s="76">
+      <c r="P14" s="71">
         <v>3852</v>
       </c>
-      <c r="Q14" s="76">
+      <c r="Q14" s="71">
         <v>1589</v>
       </c>
-      <c r="R14" s="77">
+      <c r="R14" s="72">
         <v>142.41661422278199</v>
       </c>
-      <c r="S14" s="76">
+      <c r="S14" s="71">
         <v>39.043934501557601</v>
       </c>
-      <c r="T14" s="76">
+      <c r="T14" s="71">
         <v>61.223233354310899</v>
       </c>
-      <c r="U14" s="78">
+      <c r="U14" s="73">
         <v>-56.806003636412299</v>
       </c>
-      <c r="V14" s="63"/>
-      <c r="W14" s="63"/>
     </row>
-    <row r="15" spans="1:23" ht="14.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="54"/>
-      <c r="B15" s="62" t="s">
+    <row r="15" spans="1:23" ht="12" thickBot="1">
+      <c r="A15" s="74"/>
+      <c r="B15" s="48" t="s">
         <v>13</v>
       </c>
-      <c r="C15" s="51"/>
-      <c r="D15" s="76">
+      <c r="C15" s="49"/>
+      <c r="D15" s="71">
         <v>110823.518</v>
       </c>
-      <c r="E15" s="76">
+      <c r="E15" s="71">
         <v>147248.81419999999</v>
       </c>
-      <c r="F15" s="77">
+      <c r="F15" s="72">
         <v>75.262757531938107</v>
       </c>
-      <c r="G15" s="76">
+      <c r="G15" s="71">
         <v>92806.585300000006</v>
       </c>
-      <c r="H15" s="77">
+      <c r="H15" s="72">
         <v>19.413420547431802</v>
       </c>
-      <c r="I15" s="76">
+      <c r="I15" s="71">
         <v>1539.7026000000001</v>
       </c>
-      <c r="J15" s="77">
+      <c r="J15" s="72">
         <v>1.38932839147012</v>
       </c>
-      <c r="K15" s="76">
+      <c r="K15" s="71">
         <v>20697.68</v>
       </c>
-      <c r="L15" s="77">
+      <c r="L15" s="72">
         <v>22.301951885304401</v>
       </c>
-      <c r="M15" s="77">
+      <c r="M15" s="72">
         <v>-0.92560989444227604</v>
       </c>
-      <c r="N15" s="76">
+      <c r="N15" s="71">
         <v>2360386.7966</v>
       </c>
-      <c r="O15" s="76">
+      <c r="O15" s="71">
         <v>15684251.666999999</v>
       </c>
-      <c r="P15" s="76">
+      <c r="P15" s="71">
         <v>5352</v>
       </c>
-      <c r="Q15" s="76">
+      <c r="Q15" s="71">
         <v>3996</v>
       </c>
-      <c r="R15" s="77">
+      <c r="R15" s="72">
         <v>33.933933933933901</v>
       </c>
-      <c r="S15" s="76">
+      <c r="S15" s="71">
         <v>20.706935351270602</v>
       </c>
-      <c r="T15" s="76">
+      <c r="T15" s="71">
         <v>24.5484145395395</v>
       </c>
-      <c r="U15" s="78">
+      <c r="U15" s="73">
         <v>-18.551654907413798</v>
       </c>
-      <c r="V15" s="63"/>
-      <c r="W15" s="63"/>
     </row>
-    <row r="16" spans="1:23" ht="14.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="54"/>
-      <c r="B16" s="62" t="s">
+    <row r="16" spans="1:23" ht="12" thickBot="1">
+      <c r="A16" s="74"/>
+      <c r="B16" s="48" t="s">
         <v>14</v>
       </c>
-      <c r="C16" s="51"/>
-      <c r="D16" s="76">
+      <c r="C16" s="49"/>
+      <c r="D16" s="71">
         <v>757564.67420000001</v>
       </c>
-      <c r="E16" s="76">
+      <c r="E16" s="71">
         <v>1044904.0858999999</v>
       </c>
-      <c r="F16" s="77">
+      <c r="F16" s="72">
         <v>72.500881604601304</v>
       </c>
-      <c r="G16" s="76">
+      <c r="G16" s="71">
         <v>622194.17559999996</v>
       </c>
-      <c r="H16" s="77">
+      <c r="H16" s="72">
         <v>21.756953682418899</v>
       </c>
-      <c r="I16" s="76">
+      <c r="I16" s="71">
         <v>6307.6561000000002</v>
       </c>
-      <c r="J16" s="77">
+      <c r="J16" s="72">
         <v>0.83262278651799404</v>
       </c>
-      <c r="K16" s="76">
+      <c r="K16" s="71">
         <v>57666.198299999996</v>
       </c>
-      <c r="L16" s="77">
+      <c r="L16" s="72">
         <v>9.2681996330793108</v>
       </c>
-      <c r="M16" s="77">
+      <c r="M16" s="72">
         <v>-0.89061779194832102</v>
       </c>
-      <c r="N16" s="76">
+      <c r="N16" s="71">
         <v>19376258.907299999</v>
       </c>
-      <c r="O16" s="76">
+      <c r="O16" s="71">
         <v>130956010.9394</v>
       </c>
-      <c r="P16" s="76">
+      <c r="P16" s="71">
         <v>37866</v>
       </c>
-      <c r="Q16" s="76">
+      <c r="Q16" s="71">
         <v>34741</v>
       </c>
-      <c r="R16" s="77">
+      <c r="R16" s="72">
         <v>8.9951354307590492</v>
       </c>
-      <c r="S16" s="76">
+      <c r="S16" s="71">
         <v>20.006461580309502</v>
       </c>
-      <c r="T16" s="76">
+      <c r="T16" s="71">
         <v>24.067391301344198</v>
       </c>
-      <c r="U16" s="78">
+      <c r="U16" s="73">
         <v>-20.2980907180084</v>
       </c>
-      <c r="V16" s="63"/>
-      <c r="W16" s="63"/>
     </row>
-    <row r="17" spans="1:21" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="54"/>
-      <c r="B17" s="62" t="s">
+    <row r="17" spans="1:21" ht="12" thickBot="1">
+      <c r="A17" s="74"/>
+      <c r="B17" s="48" t="s">
         <v>15</v>
       </c>
-      <c r="C17" s="51"/>
-      <c r="D17" s="76">
+      <c r="C17" s="49"/>
+      <c r="D17" s="71">
         <v>429030.11200000002</v>
       </c>
-      <c r="E17" s="76">
+      <c r="E17" s="71">
         <v>949500.10109999997</v>
       </c>
-      <c r="F17" s="77">
+      <c r="F17" s="72">
         <v>45.184841107754202</v>
       </c>
-      <c r="G17" s="76">
+      <c r="G17" s="71">
         <v>389905.69620000001</v>
       </c>
-      <c r="H17" s="77">
+      <c r="H17" s="72">
         <v>10.034327833961999</v>
       </c>
-      <c r="I17" s="76">
+      <c r="I17" s="71">
         <v>51614.502699999997</v>
       </c>
-      <c r="J17" s="77">
+      <c r="J17" s="72">
         <v>12.030508175612599</v>
       </c>
-      <c r="K17" s="76">
+      <c r="K17" s="71">
         <v>53993.342499999999</v>
       </c>
-      <c r="L17" s="77">
+      <c r="L17" s="72">
         <v>13.8477952556775</v>
       </c>
-      <c r="M17" s="77">
+      <c r="M17" s="72">
         <v>-4.4058020671714999E-2</v>
       </c>
-      <c r="N17" s="76">
+      <c r="N17" s="71">
         <v>19985364.493900001</v>
       </c>
-      <c r="O17" s="76">
+      <c r="O17" s="71">
         <v>169559571.00220001</v>
       </c>
-      <c r="P17" s="76">
+      <c r="P17" s="71">
         <v>10173</v>
       </c>
-      <c r="Q17" s="76">
+      <c r="Q17" s="71">
         <v>9129</v>
       </c>
-      <c r="R17" s="77">
+      <c r="R17" s="72">
         <v>11.436082813013501</v>
       </c>
-      <c r="S17" s="76">
+      <c r="S17" s="71">
         <v>42.173411186473999</v>
       </c>
-      <c r="T17" s="76">
+      <c r="T17" s="71">
         <v>39.979283985102398</v>
       </c>
-      <c r="U17" s="78">
+      <c r="U17" s="73">
         <v>5.2026315625027904</v>
       </c>
     </row>
-    <row r="18" spans="1:21" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="54"/>
-      <c r="B18" s="62" t="s">
+    <row r="18" spans="1:21" ht="12" customHeight="1" thickBot="1">
+      <c r="A18" s="74"/>
+      <c r="B18" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="C18" s="51"/>
-      <c r="D18" s="76">
+      <c r="C18" s="49"/>
+      <c r="D18" s="71">
         <v>1615135.003</v>
       </c>
-      <c r="E18" s="76">
+      <c r="E18" s="71">
         <v>2149962.8805</v>
       </c>
-      <c r="F18" s="77">
+      <c r="F18" s="72">
         <v>75.123855283695903</v>
       </c>
-      <c r="G18" s="76">
+      <c r="G18" s="71">
         <v>1237519.8870999999</v>
       </c>
-      <c r="H18" s="77">
+      <c r="H18" s="72">
         <v>30.513862430518401</v>
       </c>
-      <c r="I18" s="76">
+      <c r="I18" s="71">
         <v>116764.084</v>
       </c>
-      <c r="J18" s="77">
+      <c r="J18" s="72">
         <v>7.2293699154014304</v>
       </c>
-      <c r="K18" s="76">
+      <c r="K18" s="71">
         <v>198218.36619999999</v>
       </c>
-      <c r="L18" s="77">
+      <c r="L18" s="72">
         <v>16.017388347956501</v>
       </c>
-      <c r="M18" s="77">
+      <c r="M18" s="72">
         <v>-0.41093206326710202</v>
       </c>
-      <c r="N18" s="76">
+      <c r="N18" s="71">
         <v>35510648.318300001</v>
       </c>
-      <c r="O18" s="76">
+      <c r="O18" s="71">
         <v>314790488.34820002</v>
       </c>
-      <c r="P18" s="76">
+      <c r="P18" s="71">
         <v>75830</v>
       </c>
-      <c r="Q18" s="76">
+      <c r="Q18" s="71">
         <v>62061</v>
       </c>
-      <c r="R18" s="77">
+      <c r="R18" s="72">
         <v>22.186236122524601</v>
       </c>
-      <c r="S18" s="76">
+      <c r="S18" s="71">
         <v>21.299419794276702</v>
       </c>
-      <c r="T18" s="76">
+      <c r="T18" s="71">
         <v>20.055669365624102</v>
       </c>
-      <c r="U18" s="78">
+      <c r="U18" s="73">
         <v>5.83936295291356</v>
       </c>
     </row>
-    <row r="19" spans="1:21" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="54"/>
-      <c r="B19" s="62" t="s">
+    <row r="19" spans="1:21" ht="12" customHeight="1" thickBot="1">
+      <c r="A19" s="74"/>
+      <c r="B19" s="48" t="s">
         <v>17</v>
       </c>
-      <c r="C19" s="51"/>
-      <c r="D19" s="76">
+      <c r="C19" s="49"/>
+      <c r="D19" s="71">
         <v>557779.54229999997</v>
       </c>
-      <c r="E19" s="76">
+      <c r="E19" s="71">
         <v>622845.77969999996</v>
       </c>
-      <c r="F19" s="77">
+      <c r="F19" s="72">
         <v>89.553395154842406</v>
       </c>
-      <c r="G19" s="76">
+      <c r="G19" s="71">
         <v>522179.1814</v>
       </c>
-      <c r="H19" s="77">
+      <c r="H19" s="72">
         <v>6.8176522864341003</v>
       </c>
-      <c r="I19" s="76">
+      <c r="I19" s="71">
         <v>20041.392199999998</v>
       </c>
-      <c r="J19" s="77">
+      <c r="J19" s="72">
         <v>3.5930669162514399</v>
       </c>
-      <c r="K19" s="76">
+      <c r="K19" s="71">
         <v>38227.755700000002</v>
       </c>
-      <c r="L19" s="77">
+      <c r="L19" s="72">
         <v>7.3208119093351502</v>
       </c>
-      <c r="M19" s="77">
+      <c r="M19" s="72">
         <v>-0.47573714875445899</v>
       </c>
-      <c r="N19" s="76">
+      <c r="N19" s="71">
         <v>11561340.330700001</v>
       </c>
-      <c r="O19" s="76">
+      <c r="O19" s="71">
         <v>88949921.661599994</v>
       </c>
-      <c r="P19" s="76">
+      <c r="P19" s="71">
         <v>9955</v>
       </c>
-      <c r="Q19" s="76">
+      <c r="Q19" s="71">
         <v>8656</v>
       </c>
-      <c r="R19" s="77">
+      <c r="R19" s="72">
         <v>15.006931608133099</v>
       </c>
-      <c r="S19" s="76">
+      <c r="S19" s="71">
         <v>56.030089633350102</v>
       </c>
-      <c r="T19" s="76">
+      <c r="T19" s="71">
         <v>47.616465607671003</v>
       </c>
-      <c r="U19" s="78">
+      <c r="U19" s="73">
         <v>15.0162601572409</v>
       </c>
     </row>
-    <row r="20" spans="1:21" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="54"/>
-      <c r="B20" s="62" t="s">
+    <row r="20" spans="1:21" ht="12" thickBot="1">
+      <c r="A20" s="74"/>
+      <c r="B20" s="48" t="s">
         <v>18</v>
       </c>
-      <c r="C20" s="51"/>
-      <c r="D20" s="76">
+      <c r="C20" s="49"/>
+      <c r="D20" s="71">
         <v>1035917.205</v>
       </c>
-      <c r="E20" s="76">
+      <c r="E20" s="71">
         <v>1054171.7923999999</v>
       </c>
-      <c r="F20" s="77">
+      <c r="F20" s="72">
         <v>98.268347955086099</v>
       </c>
-      <c r="G20" s="76">
+      <c r="G20" s="71">
         <v>822787.76760000002</v>
       </c>
-      <c r="H20" s="77">
+      <c r="H20" s="72">
         <v>25.903330821468099</v>
       </c>
-      <c r="I20" s="76">
+      <c r="I20" s="71">
         <v>43844.012999999999</v>
       </c>
-      <c r="J20" s="77">
+      <c r="J20" s="72">
         <v>4.2323858304872903</v>
       </c>
-      <c r="K20" s="76">
+      <c r="K20" s="71">
         <v>58277.798600000002</v>
       </c>
-      <c r="L20" s="77">
+      <c r="L20" s="72">
         <v>7.0829685241907798</v>
       </c>
-      <c r="M20" s="77">
+      <c r="M20" s="72">
         <v>-0.247672114368438</v>
       </c>
-      <c r="N20" s="76">
+      <c r="N20" s="71">
         <v>20454772.667300001</v>
       </c>
-      <c r="O20" s="76">
+      <c r="O20" s="71">
         <v>147336113.79370001</v>
       </c>
-      <c r="P20" s="76">
+      <c r="P20" s="71">
         <v>39044</v>
       </c>
-      <c r="Q20" s="76">
+      <c r="Q20" s="71">
         <v>36408</v>
       </c>
-      <c r="R20" s="77">
+      <c r="R20" s="72">
         <v>7.2401669962645503</v>
       </c>
-      <c r="S20" s="76">
+      <c r="S20" s="71">
         <v>26.532046024997399</v>
       </c>
-      <c r="T20" s="76">
+      <c r="T20" s="71">
         <v>25.839264123269601</v>
       </c>
-      <c r="U20" s="78">
+      <c r="U20" s="73">
         <v>2.6111137492943999</v>
       </c>
     </row>
-    <row r="21" spans="1:21" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="54"/>
-      <c r="B21" s="62" t="s">
+    <row r="21" spans="1:21" ht="12" customHeight="1" thickBot="1">
+      <c r="A21" s="74"/>
+      <c r="B21" s="48" t="s">
         <v>19</v>
       </c>
-      <c r="C21" s="51"/>
-      <c r="D21" s="76">
+      <c r="C21" s="49"/>
+      <c r="D21" s="71">
         <v>334598.66139999998</v>
       </c>
-      <c r="E21" s="76">
+      <c r="E21" s="71">
         <v>397595.6041</v>
       </c>
-      <c r="F21" s="77">
+      <c r="F21" s="72">
         <v>84.155523338191799</v>
       </c>
-      <c r="G21" s="76">
+      <c r="G21" s="71">
         <v>251972.82800000001</v>
       </c>
-      <c r="H21" s="77">
+      <c r="H21" s="72">
         <v>32.791564890480998</v>
       </c>
-      <c r="I21" s="76">
+      <c r="I21" s="71">
         <v>35479.2952</v>
       </c>
-      <c r="J21" s="77">
+      <c r="J21" s="72">
         <v>10.6035376984326</v>
       </c>
-      <c r="K21" s="76">
+      <c r="K21" s="71">
         <v>27668.880300000001</v>
       </c>
-      <c r="L21" s="77">
+      <c r="L21" s="72">
         <v>10.980898424492</v>
       </c>
-      <c r="M21" s="77">
+      <c r="M21" s="72">
         <v>0.28228156742576999</v>
       </c>
-      <c r="N21" s="76">
+      <c r="N21" s="71">
         <v>7170635.5960999997</v>
       </c>
-      <c r="O21" s="76">
+      <c r="O21" s="71">
         <v>54536515.553300001</v>
       </c>
-      <c r="P21" s="76">
+      <c r="P21" s="71">
         <v>28068</v>
       </c>
-      <c r="Q21" s="76">
+      <c r="Q21" s="71">
         <v>24379</v>
       </c>
-      <c r="R21" s="77">
+      <c r="R21" s="72">
         <v>15.131875794741401</v>
       </c>
-      <c r="S21" s="76">
+      <c r="S21" s="71">
         <v>11.9210011899672</v>
       </c>
-      <c r="T21" s="76">
+      <c r="T21" s="71">
         <v>11.6467451002912</v>
       </c>
-      <c r="U21" s="78">
+      <c r="U21" s="73">
         <v>2.3006128873370599</v>
       </c>
     </row>
-    <row r="22" spans="1:21" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="54"/>
-      <c r="B22" s="62" t="s">
+    <row r="22" spans="1:21" ht="12" customHeight="1" thickBot="1">
+      <c r="A22" s="74"/>
+      <c r="B22" s="48" t="s">
         <v>20</v>
       </c>
-      <c r="C22" s="51"/>
-      <c r="D22" s="76">
+      <c r="C22" s="49"/>
+      <c r="D22" s="71">
         <v>1106626.0767000001</v>
       </c>
-      <c r="E22" s="76">
+      <c r="E22" s="71">
         <v>1422873.3791</v>
       </c>
-      <c r="F22" s="77">
+      <c r="F22" s="72">
         <v>77.774037588640994</v>
       </c>
-      <c r="G22" s="76">
+      <c r="G22" s="71">
         <v>966454.4362</v>
       </c>
-      <c r="H22" s="77">
+      <c r="H22" s="72">
         <v>14.503698803550501</v>
       </c>
-      <c r="I22" s="76">
+      <c r="I22" s="71">
         <v>45440.340700000001</v>
       </c>
-      <c r="J22" s="77">
+      <c r="J22" s="72">
         <v>4.1062054886240196</v>
       </c>
-      <c r="K22" s="76">
+      <c r="K22" s="71">
         <v>124661.0769</v>
       </c>
-      <c r="L22" s="77">
+      <c r="L22" s="72">
         <v>12.8988053891247</v>
       </c>
-      <c r="M22" s="77">
+      <c r="M22" s="72">
         <v>-0.63548894466513295</v>
       </c>
-      <c r="N22" s="76">
+      <c r="N22" s="71">
         <v>24990369.227200001</v>
       </c>
-      <c r="O22" s="76">
+      <c r="O22" s="71">
         <v>168886821.46489999</v>
       </c>
-      <c r="P22" s="76">
+      <c r="P22" s="71">
         <v>69053</v>
       </c>
-      <c r="Q22" s="76">
+      <c r="Q22" s="71">
         <v>66295</v>
       </c>
-      <c r="R22" s="77">
+      <c r="R22" s="72">
         <v>4.1601930764009403</v>
       </c>
-      <c r="S22" s="76">
+      <c r="S22" s="71">
         <v>16.025749448974</v>
       </c>
-      <c r="T22" s="76">
+      <c r="T22" s="71">
         <v>16.093926643034902</v>
       </c>
-      <c r="U22" s="78">
+      <c r="U22" s="73">
         <v>-0.42542281269291099</v>
       </c>
     </row>
-    <row r="23" spans="1:21" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="54"/>
-      <c r="B23" s="62" t="s">
+    <row r="23" spans="1:21" ht="12" thickBot="1">
+      <c r="A23" s="74"/>
+      <c r="B23" s="48" t="s">
         <v>21</v>
       </c>
-      <c r="C23" s="51"/>
-      <c r="D23" s="76">
+      <c r="C23" s="49"/>
+      <c r="D23" s="71">
         <v>2866182.0125000002</v>
       </c>
-      <c r="E23" s="76">
+      <c r="E23" s="71">
         <v>2890003.6113999998</v>
       </c>
-      <c r="F23" s="77">
+      <c r="F23" s="72">
         <v>99.175724251484198</v>
       </c>
-      <c r="G23" s="76">
+      <c r="G23" s="71">
         <v>1892497.7364000001</v>
       </c>
-      <c r="H23" s="77">
+      <c r="H23" s="72">
         <v>51.449693036473001</v>
       </c>
-      <c r="I23" s="76">
+      <c r="I23" s="71">
         <v>28069.293099999999</v>
       </c>
-      <c r="J23" s="77">
+      <c r="J23" s="72">
         <v>0.97932695751993903</v>
       </c>
-      <c r="K23" s="76">
+      <c r="K23" s="71">
         <v>284617.29080000002</v>
       </c>
-      <c r="L23" s="77">
+      <c r="L23" s="72">
         <v>15.039240751823201</v>
       </c>
-      <c r="M23" s="77">
+      <c r="M23" s="72">
         <v>-0.90137881988440305</v>
       </c>
-      <c r="N23" s="76">
+      <c r="N23" s="71">
         <v>54510232.048799999</v>
       </c>
-      <c r="O23" s="76">
+      <c r="O23" s="71">
         <v>376320063.83069998</v>
       </c>
-      <c r="P23" s="76">
+      <c r="P23" s="71">
         <v>72990</v>
       </c>
-      <c r="Q23" s="76">
+      <c r="Q23" s="71">
         <v>68866</v>
       </c>
-      <c r="R23" s="77">
+      <c r="R23" s="72">
         <v>5.9884413208259399</v>
       </c>
-      <c r="S23" s="76">
+      <c r="S23" s="71">
         <v>39.268146492670198</v>
       </c>
-      <c r="T23" s="76">
+      <c r="T23" s="71">
         <v>31.094154764324902</v>
       </c>
-      <c r="U23" s="78">
+      <c r="U23" s="73">
         <v>20.815832827431901</v>
       </c>
     </row>
-    <row r="24" spans="1:21" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="54"/>
-      <c r="B24" s="62" t="s">
+    <row r="24" spans="1:21" ht="12" thickBot="1">
+      <c r="A24" s="74"/>
+      <c r="B24" s="48" t="s">
         <v>22</v>
       </c>
-      <c r="C24" s="51"/>
-      <c r="D24" s="76">
+      <c r="C24" s="49"/>
+      <c r="D24" s="71">
         <v>220378.93460000001</v>
       </c>
-      <c r="E24" s="76">
+      <c r="E24" s="71">
         <v>219556.44579999999</v>
       </c>
-      <c r="F24" s="77">
+      <c r="F24" s="72">
         <v>100.37461382516101</v>
       </c>
-      <c r="G24" s="76">
+      <c r="G24" s="71">
         <v>180408.74239999999</v>
       </c>
-      <c r="H24" s="77">
+      <c r="H24" s="72">
         <v>22.155352156592599</v>
       </c>
-      <c r="I24" s="76">
+      <c r="I24" s="71">
         <v>31950.142800000001</v>
       </c>
-      <c r="J24" s="77">
+      <c r="J24" s="72">
         <v>14.497820700508999</v>
       </c>
-      <c r="K24" s="76">
+      <c r="K24" s="71">
         <v>28978.793300000001</v>
       </c>
-      <c r="L24" s="77">
+      <c r="L24" s="72">
         <v>16.062854224519</v>
       </c>
-      <c r="M24" s="77">
+      <c r="M24" s="72">
         <v>0.102535308121336</v>
       </c>
-      <c r="N24" s="76">
+      <c r="N24" s="71">
         <v>4742274.1513999999</v>
       </c>
-      <c r="O24" s="76">
+      <c r="O24" s="71">
         <v>37612811.855599999</v>
       </c>
-      <c r="P24" s="76">
+      <c r="P24" s="71">
         <v>22234</v>
       </c>
-      <c r="Q24" s="76">
+      <c r="Q24" s="71">
         <v>20496</v>
       </c>
-      <c r="R24" s="77">
+      <c r="R24" s="72">
         <v>8.4797033567525499</v>
       </c>
-      <c r="S24" s="76">
+      <c r="S24" s="71">
         <v>9.9117988036340705</v>
       </c>
-      <c r="T24" s="76">
+      <c r="T24" s="71">
         <v>9.4448347677595592</v>
       </c>
-      <c r="U24" s="78">
+      <c r="U24" s="73">
         <v>4.7111936503725396</v>
       </c>
     </row>
-    <row r="25" spans="1:21" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="54"/>
-      <c r="B25" s="62" t="s">
+    <row r="25" spans="1:21" ht="12" thickBot="1">
+      <c r="A25" s="74"/>
+      <c r="B25" s="48" t="s">
         <v>23</v>
       </c>
-      <c r="C25" s="51"/>
-      <c r="D25" s="76">
+      <c r="C25" s="49"/>
+      <c r="D25" s="71">
         <v>231621.56899999999</v>
       </c>
-      <c r="E25" s="76">
+      <c r="E25" s="71">
         <v>247239.1538</v>
       </c>
-      <c r="F25" s="77">
+      <c r="F25" s="72">
         <v>93.683207307596007</v>
       </c>
-      <c r="G25" s="76">
+      <c r="G25" s="71">
         <v>176058.51800000001</v>
       </c>
-      <c r="H25" s="77">
+      <c r="H25" s="72">
         <v>31.5594221916602</v>
       </c>
-      <c r="I25" s="76">
+      <c r="I25" s="71">
         <v>16843.846399999999</v>
       </c>
-      <c r="J25" s="77">
+      <c r="J25" s="72">
         <v>7.2721407046508704</v>
       </c>
-      <c r="K25" s="76">
+      <c r="K25" s="71">
         <v>16392.7222</v>
       </c>
-      <c r="L25" s="77">
+      <c r="L25" s="72">
         <v>9.3109509191710895</v>
       </c>
-      <c r="M25" s="77">
+      <c r="M25" s="72">
         <v>2.7519785578993001E-2</v>
       </c>
-      <c r="N25" s="76">
+      <c r="N25" s="71">
         <v>5348827.9145999998</v>
       </c>
-      <c r="O25" s="76">
+      <c r="O25" s="71">
         <v>50085328.284900002</v>
       </c>
-      <c r="P25" s="76">
+      <c r="P25" s="71">
         <v>15676</v>
       </c>
-      <c r="Q25" s="76">
+      <c r="Q25" s="71">
         <v>15083</v>
       </c>
-      <c r="R25" s="77">
+      <c r="R25" s="72">
         <v>3.9315785984220599</v>
       </c>
-      <c r="S25" s="76">
+      <c r="S25" s="71">
         <v>14.7755530109722</v>
       </c>
-      <c r="T25" s="76">
+      <c r="T25" s="71">
         <v>13.899139183186399</v>
       </c>
-      <c r="U25" s="78">
+      <c r="U25" s="73">
         <v>5.9315128654406299</v>
       </c>
     </row>
-    <row r="26" spans="1:21" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="54"/>
-      <c r="B26" s="62" t="s">
+    <row r="26" spans="1:21" ht="12" thickBot="1">
+      <c r="A26" s="74"/>
+      <c r="B26" s="48" t="s">
         <v>24</v>
       </c>
-      <c r="C26" s="51"/>
-      <c r="D26" s="76">
+      <c r="C26" s="49"/>
+      <c r="D26" s="71">
         <v>584353.51439999999</v>
       </c>
-      <c r="E26" s="76">
+      <c r="E26" s="71">
         <v>652261.10620000004</v>
       </c>
-      <c r="F26" s="77">
+      <c r="F26" s="72">
         <v>89.588894515630102</v>
       </c>
-      <c r="G26" s="76">
+      <c r="G26" s="71">
         <v>447796.33110000001</v>
       </c>
-      <c r="H26" s="77">
+      <c r="H26" s="72">
         <v>30.495377879615699</v>
       </c>
-      <c r="I26" s="76">
+      <c r="I26" s="71">
         <v>101340.9375</v>
       </c>
-      <c r="J26" s="77">
+      <c r="J26" s="72">
         <v>17.342402330557501</v>
       </c>
-      <c r="K26" s="76">
+      <c r="K26" s="71">
         <v>97979.314700000003</v>
       </c>
-      <c r="L26" s="77">
+      <c r="L26" s="72">
         <v>21.880329939130199</v>
       </c>
-      <c r="M26" s="77">
+      <c r="M26" s="72">
         <v>3.4309515332831997E-2</v>
       </c>
-      <c r="N26" s="76">
+      <c r="N26" s="71">
         <v>11987159.0052</v>
       </c>
-      <c r="O26" s="76">
+      <c r="O26" s="71">
         <v>88172715.674600005</v>
       </c>
-      <c r="P26" s="76">
+      <c r="P26" s="71">
         <v>41462</v>
       </c>
-      <c r="Q26" s="76">
+      <c r="Q26" s="71">
         <v>41623</v>
       </c>
-      <c r="R26" s="77">
+      <c r="R26" s="72">
         <v>-0.38680537202988602</v>
       </c>
-      <c r="S26" s="76">
+      <c r="S26" s="71">
         <v>14.093712662196699</v>
       </c>
-      <c r="T26" s="76">
+      <c r="T26" s="71">
         <v>14.252588189222299</v>
       </c>
-      <c r="U26" s="78">
+      <c r="U26" s="73">
         <v>-1.12727945314043</v>
       </c>
     </row>
-    <row r="27" spans="1:21" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="54"/>
-      <c r="B27" s="62" t="s">
+    <row r="27" spans="1:21" ht="12" thickBot="1">
+      <c r="A27" s="74"/>
+      <c r="B27" s="48" t="s">
         <v>25</v>
       </c>
-      <c r="C27" s="51"/>
-      <c r="D27" s="76">
+      <c r="C27" s="49"/>
+      <c r="D27" s="71">
         <v>220407.13</v>
       </c>
-      <c r="E27" s="76">
+      <c r="E27" s="71">
         <v>270650.58309999999</v>
       </c>
-      <c r="F27" s="77">
+      <c r="F27" s="72">
         <v>81.436044761286894</v>
       </c>
-      <c r="G27" s="76">
+      <c r="G27" s="71">
         <v>212656.72159999999</v>
       </c>
-      <c r="H27" s="77">
+      <c r="H27" s="72">
         <v>3.6445630976002001</v>
       </c>
-      <c r="I27" s="76">
+      <c r="I27" s="71">
         <v>61636.017399999997</v>
       </c>
-      <c r="J27" s="77">
+      <c r="J27" s="72">
         <v>27.964620473031001</v>
       </c>
-      <c r="K27" s="76">
+      <c r="K27" s="71">
         <v>58573.112099999998</v>
       </c>
-      <c r="L27" s="77">
+      <c r="L27" s="72">
         <v>27.543503755396902</v>
       </c>
-      <c r="M27" s="77">
+      <c r="M27" s="72">
         <v>5.2292002084007E-2</v>
       </c>
-      <c r="N27" s="76">
+      <c r="N27" s="71">
         <v>4824942.9310999997</v>
       </c>
-      <c r="O27" s="76">
+      <c r="O27" s="71">
         <v>29927645.027199998</v>
       </c>
-      <c r="P27" s="76">
+      <c r="P27" s="71">
         <v>28860</v>
       </c>
-      <c r="Q27" s="76">
+      <c r="Q27" s="71">
         <v>26628</v>
       </c>
-      <c r="R27" s="77">
+      <c r="R27" s="72">
         <v>8.3821541234790509</v>
       </c>
-      <c r="S27" s="76">
+      <c r="S27" s="71">
         <v>7.6371146916146904</v>
       </c>
-      <c r="T27" s="76">
+      <c r="T27" s="71">
         <v>7.43022638575935</v>
       </c>
-      <c r="U27" s="78">
+      <c r="U27" s="73">
         <v>2.70898518890252</v>
       </c>
     </row>
-    <row r="28" spans="1:21" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="54"/>
-      <c r="B28" s="62" t="s">
+    <row r="28" spans="1:21" ht="12" thickBot="1">
+      <c r="A28" s="74"/>
+      <c r="B28" s="48" t="s">
         <v>26</v>
       </c>
-      <c r="C28" s="51"/>
-      <c r="D28" s="76">
+      <c r="C28" s="49"/>
+      <c r="D28" s="71">
         <v>824125.09609999997</v>
       </c>
-      <c r="E28" s="76">
+      <c r="E28" s="71">
         <v>739825.31299999997</v>
       </c>
-      <c r="F28" s="77">
+      <c r="F28" s="72">
         <v>111.39455241915999</v>
       </c>
-      <c r="G28" s="76">
+      <c r="G28" s="71">
         <v>657064.42720000003</v>
       </c>
-      <c r="H28" s="77">
+      <c r="H28" s="72">
         <v>25.425310210736701</v>
       </c>
-      <c r="I28" s="76">
+      <c r="I28" s="71">
         <v>34206.923300000002</v>
       </c>
-      <c r="J28" s="77">
+      <c r="J28" s="72">
         <v>4.1506955026460304</v>
       </c>
-      <c r="K28" s="76">
+      <c r="K28" s="71">
         <v>27357.2124</v>
       </c>
-      <c r="L28" s="77">
+      <c r="L28" s="72">
         <v>4.1635509803170203</v>
       </c>
-      <c r="M28" s="77">
+      <c r="M28" s="72">
         <v>0.25038044080836303</v>
       </c>
-      <c r="N28" s="76">
+      <c r="N28" s="71">
         <v>17249955.818700001</v>
       </c>
-      <c r="O28" s="76">
+      <c r="O28" s="71">
         <v>125953639.4277</v>
       </c>
-      <c r="P28" s="76">
+      <c r="P28" s="71">
         <v>37354</v>
       </c>
-      <c r="Q28" s="76">
+      <c r="Q28" s="71">
         <v>35735</v>
       </c>
-      <c r="R28" s="77">
+      <c r="R28" s="72">
         <v>4.5305722680845104</v>
       </c>
-      <c r="S28" s="76">
+      <c r="S28" s="71">
         <v>22.062566153557899</v>
       </c>
-      <c r="T28" s="76">
+      <c r="T28" s="71">
         <v>21.512490930460299</v>
       </c>
-      <c r="U28" s="78">
+      <c r="U28" s="73">
         <v>2.4932513256569302</v>
       </c>
     </row>
-    <row r="29" spans="1:21" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="54"/>
-      <c r="B29" s="62" t="s">
+    <row r="29" spans="1:21" ht="12" thickBot="1">
+      <c r="A29" s="74"/>
+      <c r="B29" s="48" t="s">
         <v>27</v>
       </c>
-      <c r="C29" s="51"/>
-      <c r="D29" s="76">
+      <c r="C29" s="49"/>
+      <c r="D29" s="71">
         <v>858665.74609999999</v>
       </c>
-      <c r="E29" s="76">
+      <c r="E29" s="71">
         <v>794103.08700000006</v>
       </c>
-      <c r="F29" s="77">
+      <c r="F29" s="72">
         <v>108.130261694852</v>
       </c>
-      <c r="G29" s="76">
+      <c r="G29" s="71">
         <v>737201.65209999995</v>
       </c>
-      <c r="H29" s="77">
+      <c r="H29" s="72">
         <v>16.476373005133201</v>
       </c>
-      <c r="I29" s="76">
+      <c r="I29" s="71">
         <v>115479.208</v>
       </c>
-      <c r="J29" s="77">
+      <c r="J29" s="72">
         <v>13.4486799461255</v>
       </c>
-      <c r="K29" s="76">
+      <c r="K29" s="71">
         <v>84962.334700000007</v>
       </c>
-      <c r="L29" s="77">
+      <c r="L29" s="72">
         <v>11.5249788789777</v>
       </c>
-      <c r="M29" s="77">
+      <c r="M29" s="72">
         <v>0.35918119961927097</v>
       </c>
-      <c r="N29" s="76">
+      <c r="N29" s="71">
         <v>17738144.981699999</v>
       </c>
-      <c r="O29" s="76">
+      <c r="O29" s="71">
         <v>91625763.035899997</v>
       </c>
-      <c r="P29" s="76">
+      <c r="P29" s="71">
         <v>108831</v>
       </c>
-      <c r="Q29" s="76">
+      <c r="Q29" s="71">
         <v>108927</v>
       </c>
-      <c r="R29" s="77">
+      <c r="R29" s="72">
         <v>-8.8132418959485995E-2</v>
       </c>
-      <c r="S29" s="76">
+      <c r="S29" s="71">
         <v>7.8899003601914899</v>
       </c>
-      <c r="T29" s="76">
+      <c r="T29" s="71">
         <v>7.6602255180074703</v>
       </c>
-      <c r="U29" s="78">
+      <c r="U29" s="73">
         <v>2.91099800629729</v>
       </c>
     </row>
-    <row r="30" spans="1:21" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="54"/>
-      <c r="B30" s="62" t="s">
+    <row r="30" spans="1:21" ht="12" thickBot="1">
+      <c r="A30" s="74"/>
+      <c r="B30" s="48" t="s">
         <v>28</v>
       </c>
-      <c r="C30" s="51"/>
-      <c r="D30" s="76">
+      <c r="C30" s="49"/>
+      <c r="D30" s="71">
         <v>1442708.791</v>
       </c>
-      <c r="E30" s="76">
+      <c r="E30" s="71">
         <v>1352732.3707000001</v>
       </c>
-      <c r="F30" s="77">
+      <c r="F30" s="72">
         <v>106.65145761636801</v>
       </c>
-      <c r="G30" s="76">
+      <c r="G30" s="71">
         <v>1042121.9035</v>
       </c>
-      <c r="H30" s="77">
+      <c r="H30" s="72">
         <v>38.439542068410297</v>
       </c>
-      <c r="I30" s="76">
+      <c r="I30" s="71">
         <v>118647.9899</v>
       </c>
-      <c r="J30" s="77">
+      <c r="J30" s="72">
         <v>8.2239735863646004</v>
       </c>
-      <c r="K30" s="76">
+      <c r="K30" s="71">
         <v>131620.8308</v>
       </c>
-      <c r="L30" s="77">
+      <c r="L30" s="72">
         <v>12.6300800662521</v>
       </c>
-      <c r="M30" s="77">
+      <c r="M30" s="72">
         <v>-9.8562217098542002E-2</v>
       </c>
-      <c r="N30" s="76">
+      <c r="N30" s="71">
         <v>26643130.5055</v>
       </c>
-      <c r="O30" s="76">
+      <c r="O30" s="71">
         <v>130873824.8193</v>
       </c>
-      <c r="P30" s="76">
+      <c r="P30" s="71">
         <v>80306</v>
       </c>
-      <c r="Q30" s="76">
+      <c r="Q30" s="71">
         <v>80593</v>
       </c>
-      <c r="R30" s="77">
+      <c r="R30" s="72">
         <v>-0.35611033216283999</v>
       </c>
-      <c r="S30" s="76">
+      <c r="S30" s="71">
         <v>17.965143214703801</v>
       </c>
-      <c r="T30" s="76">
+      <c r="T30" s="71">
         <v>18.538865147097098</v>
       </c>
-      <c r="U30" s="78">
+      <c r="U30" s="73">
         <v>-3.19352829830944</v>
       </c>
     </row>
-    <row r="31" spans="1:21" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="54"/>
-      <c r="B31" s="62" t="s">
+    <row r="31" spans="1:21" ht="12" thickBot="1">
+      <c r="A31" s="74"/>
+      <c r="B31" s="48" t="s">
         <v>29</v>
       </c>
-      <c r="C31" s="51"/>
-      <c r="D31" s="76">
+      <c r="C31" s="49"/>
+      <c r="D31" s="71">
         <v>788785.47120000003</v>
       </c>
-      <c r="E31" s="76">
+      <c r="E31" s="71">
         <v>643653.70559999999</v>
       </c>
-      <c r="F31" s="77">
+      <c r="F31" s="72">
         <v>122.54811311382301</v>
       </c>
-      <c r="G31" s="76">
+      <c r="G31" s="71">
         <v>731607.18489999999</v>
       </c>
-      <c r="H31" s="77">
+      <c r="H31" s="72">
         <v>7.8154353155806398</v>
       </c>
-      <c r="I31" s="76">
+      <c r="I31" s="71">
         <v>24442.199700000001</v>
       </c>
-      <c r="J31" s="77">
+      <c r="J31" s="72">
         <v>3.0987132233578598</v>
       </c>
-      <c r="K31" s="76">
+      <c r="K31" s="71">
         <v>10476.7619</v>
       </c>
-      <c r="L31" s="77">
+      <c r="L31" s="72">
         <v>1.43202009442157</v>
       </c>
-      <c r="M31" s="77">
+      <c r="M31" s="72">
         <v>1.3329918092344899</v>
       </c>
-      <c r="N31" s="76">
+      <c r="N31" s="71">
         <v>19609527.157400001</v>
       </c>
-      <c r="O31" s="76">
+      <c r="O31" s="71">
         <v>153607490.5086</v>
       </c>
-      <c r="P31" s="76">
+      <c r="P31" s="71">
         <v>32571</v>
       </c>
-      <c r="Q31" s="76">
+      <c r="Q31" s="71">
         <v>30720</v>
       </c>
-      <c r="R31" s="77">
+      <c r="R31" s="72">
         <v>6.025390625</v>
       </c>
-      <c r="S31" s="76">
+      <c r="S31" s="71">
         <v>24.217416450216401</v>
       </c>
-      <c r="T31" s="76">
+      <c r="T31" s="71">
         <v>23.517736276041699</v>
       </c>
-      <c r="U31" s="78">
+      <c r="U31" s="73">
         <v>2.8891610945086001</v>
       </c>
     </row>
-    <row r="32" spans="1:21" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="54"/>
-      <c r="B32" s="62" t="s">
+    <row r="32" spans="1:21" ht="12" thickBot="1">
+      <c r="A32" s="74"/>
+      <c r="B32" s="48" t="s">
         <v>30</v>
       </c>
-      <c r="C32" s="51"/>
-      <c r="D32" s="76">
+      <c r="C32" s="49"/>
+      <c r="D32" s="71">
         <v>105876.62239999999</v>
       </c>
-      <c r="E32" s="76">
+      <c r="E32" s="71">
         <v>123756.8839</v>
       </c>
-      <c r="F32" s="77">
+      <c r="F32" s="72">
         <v>85.552107538156903</v>
       </c>
-      <c r="G32" s="76">
+      <c r="G32" s="71">
         <v>96317.813299999994</v>
       </c>
-      <c r="H32" s="77">
+      <c r="H32" s="72">
         <v>9.9242380744538803</v>
       </c>
-      <c r="I32" s="76">
+      <c r="I32" s="71">
         <v>26824.4509</v>
       </c>
-      <c r="J32" s="77">
+      <c r="J32" s="72">
         <v>25.335574834128799</v>
       </c>
-      <c r="K32" s="76">
+      <c r="K32" s="71">
         <v>28159.6839</v>
       </c>
-      <c r="L32" s="77">
+      <c r="L32" s="72">
         <v>29.236215955496601</v>
       </c>
-      <c r="M32" s="77">
+      <c r="M32" s="72">
         <v>-4.7416476858960999E-2</v>
       </c>
-      <c r="N32" s="76">
+      <c r="N32" s="71">
         <v>2200520.9789999998</v>
       </c>
-      <c r="O32" s="76">
+      <c r="O32" s="71">
         <v>14516874.8051</v>
       </c>
-      <c r="P32" s="76">
+      <c r="P32" s="71">
         <v>22755</v>
       </c>
-      <c r="Q32" s="76">
+      <c r="Q32" s="71">
         <v>21634</v>
       </c>
-      <c r="R32" s="77">
+      <c r="R32" s="72">
         <v>5.1816585005084699</v>
       </c>
-      <c r="S32" s="76">
+      <c r="S32" s="71">
         <v>4.6528948538782702</v>
       </c>
-      <c r="T32" s="76">
+      <c r="T32" s="71">
         <v>4.5201913561985796</v>
       </c>
-      <c r="U32" s="78">
+      <c r="U32" s="73">
         <v>2.8520631101105098</v>
       </c>
     </row>
-    <row r="33" spans="1:21" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="54"/>
-      <c r="B33" s="62" t="s">
+    <row r="33" spans="1:21" ht="12" thickBot="1">
+      <c r="A33" s="74"/>
+      <c r="B33" s="48" t="s">
         <v>74</v>
       </c>
-      <c r="C33" s="51"/>
-      <c r="D33" s="79"/>
-      <c r="E33" s="79"/>
-      <c r="F33" s="79"/>
-      <c r="G33" s="79"/>
-      <c r="H33" s="79"/>
-      <c r="I33" s="79"/>
-      <c r="J33" s="79"/>
-      <c r="K33" s="79"/>
-      <c r="L33" s="79"/>
-      <c r="M33" s="79"/>
-      <c r="N33" s="76">
+      <c r="C33" s="49"/>
+      <c r="D33" s="75"/>
+      <c r="E33" s="75"/>
+      <c r="F33" s="75"/>
+      <c r="G33" s="75"/>
+      <c r="H33" s="75"/>
+      <c r="I33" s="75"/>
+      <c r="J33" s="75"/>
+      <c r="K33" s="75"/>
+      <c r="L33" s="75"/>
+      <c r="M33" s="75"/>
+      <c r="N33" s="71">
         <v>9.8230000000000004</v>
       </c>
-      <c r="O33" s="76">
+      <c r="O33" s="71">
         <v>301.12830000000002</v>
       </c>
-      <c r="P33" s="79"/>
-      <c r="Q33" s="79"/>
-      <c r="R33" s="79"/>
-      <c r="S33" s="79"/>
-      <c r="T33" s="79"/>
-      <c r="U33" s="80"/>
+      <c r="P33" s="75"/>
+      <c r="Q33" s="75"/>
+      <c r="R33" s="75"/>
+      <c r="S33" s="75"/>
+      <c r="T33" s="75"/>
+      <c r="U33" s="76"/>
     </row>
-    <row r="34" spans="1:21" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="54"/>
-      <c r="B34" s="62" t="s">
+    <row r="34" spans="1:21" ht="12" thickBot="1">
+      <c r="A34" s="74"/>
+      <c r="B34" s="48" t="s">
         <v>31</v>
       </c>
-      <c r="C34" s="51"/>
-      <c r="D34" s="76">
+      <c r="C34" s="49"/>
+      <c r="D34" s="71">
         <v>135770.32740000001</v>
       </c>
-      <c r="E34" s="76">
+      <c r="E34" s="71">
         <v>139540.3529</v>
       </c>
-      <c r="F34" s="77">
+      <c r="F34" s="72">
         <v>97.298254288706204</v>
       </c>
-      <c r="G34" s="76">
+      <c r="G34" s="71">
         <v>102441.9618</v>
       </c>
-      <c r="H34" s="77">
+      <c r="H34" s="72">
         <v>32.533900185421899</v>
       </c>
-      <c r="I34" s="76">
+      <c r="I34" s="71">
         <v>10640.182699999999</v>
       </c>
-      <c r="J34" s="77">
+      <c r="J34" s="72">
         <v>7.8368984621009297</v>
       </c>
-      <c r="K34" s="76">
+      <c r="K34" s="71">
         <v>11293.3688</v>
       </c>
-      <c r="L34" s="77">
+      <c r="L34" s="72">
         <v>11.024162951943801</v>
       </c>
-      <c r="M34" s="77">
+      <c r="M34" s="72">
         <v>-5.7838020839273002E-2</v>
       </c>
-      <c r="N34" s="76">
+      <c r="N34" s="71">
         <v>2597176.3821999999</v>
       </c>
-      <c r="O34" s="76">
+      <c r="O34" s="71">
         <v>25492819.0493</v>
       </c>
-      <c r="P34" s="76">
+      <c r="P34" s="71">
         <v>9789</v>
       </c>
-      <c r="Q34" s="76">
+      <c r="Q34" s="71">
         <v>9136</v>
       </c>
-      <c r="R34" s="77">
+      <c r="R34" s="72">
         <v>7.1475481611208398</v>
       </c>
-      <c r="S34" s="76">
+      <c r="S34" s="71">
         <v>13.869683052405801</v>
       </c>
-      <c r="T34" s="76">
+      <c r="T34" s="71">
         <v>14.0514180166375</v>
       </c>
-      <c r="U34" s="78">
+      <c r="U34" s="73">
         <v>-1.31030365686832</v>
       </c>
     </row>
-    <row r="35" spans="1:21" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="54"/>
-      <c r="B35" s="62" t="s">
+    <row r="35" spans="1:21" ht="12" customHeight="1" thickBot="1">
+      <c r="A35" s="74"/>
+      <c r="B35" s="48" t="s">
         <v>68</v>
       </c>
-      <c r="C35" s="51"/>
-      <c r="D35" s="76">
+      <c r="C35" s="49"/>
+      <c r="D35" s="71">
         <v>159981.12</v>
       </c>
-      <c r="E35" s="79"/>
-      <c r="F35" s="79"/>
-      <c r="G35" s="76">
+      <c r="E35" s="75"/>
+      <c r="F35" s="75"/>
+      <c r="G35" s="71">
         <v>245921.37</v>
       </c>
-      <c r="H35" s="77">
+      <c r="H35" s="72">
         <v>-34.946230984318298</v>
       </c>
-      <c r="I35" s="76">
+      <c r="I35" s="71">
         <v>-3030.66</v>
       </c>
-      <c r="J35" s="77">
+      <c r="J35" s="72">
         <v>-1.89438603755243</v>
       </c>
-      <c r="K35" s="76">
+      <c r="K35" s="71">
         <v>750.43</v>
       </c>
-      <c r="L35" s="77">
+      <c r="L35" s="72">
         <v>0.30515038201031502</v>
       </c>
-      <c r="M35" s="77">
+      <c r="M35" s="72">
         <v>-5.0385645563210399</v>
       </c>
-      <c r="N35" s="76">
+      <c r="N35" s="71">
         <v>2141691.9</v>
       </c>
-      <c r="O35" s="76">
+      <c r="O35" s="71">
         <v>17342532.129999999</v>
       </c>
-      <c r="P35" s="76">
+      <c r="P35" s="71">
         <v>71</v>
       </c>
-      <c r="Q35" s="76">
+      <c r="Q35" s="71">
         <v>40</v>
       </c>
-      <c r="R35" s="77">
+      <c r="R35" s="72">
         <v>77.5</v>
       </c>
-      <c r="S35" s="76">
+      <c r="S35" s="71">
         <v>2253.2552112676099</v>
       </c>
-      <c r="T35" s="76">
+      <c r="T35" s="71">
         <v>1604.4662499999999</v>
       </c>
-      <c r="U35" s="78">
+      <c r="U35" s="73">
         <v>28.7934077783679</v>
       </c>
     </row>
-    <row r="36" spans="1:21" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="54"/>
-      <c r="B36" s="62" t="s">
+    <row r="36" spans="1:21" ht="12" thickBot="1">
+      <c r="A36" s="74"/>
+      <c r="B36" s="48" t="s">
         <v>35</v>
       </c>
-      <c r="C36" s="51"/>
-      <c r="D36" s="76">
+      <c r="C36" s="49"/>
+      <c r="D36" s="71">
         <v>312291.67</v>
       </c>
-      <c r="E36" s="79"/>
-      <c r="F36" s="79"/>
-      <c r="G36" s="76">
+      <c r="E36" s="75"/>
+      <c r="F36" s="75"/>
+      <c r="G36" s="71">
         <v>85530.79</v>
       </c>
-      <c r="H36" s="77">
+      <c r="H36" s="72">
         <v>265.12192860606098</v>
       </c>
-      <c r="I36" s="76">
+      <c r="I36" s="71">
         <v>-33899.69</v>
       </c>
-      <c r="J36" s="77">
+      <c r="J36" s="72">
         <v>-10.8551374425069</v>
       </c>
-      <c r="K36" s="76">
+      <c r="K36" s="71">
         <v>-6841.92</v>
       </c>
-      <c r="L36" s="77">
+      <c r="L36" s="72">
         <v>-7.9993649070703103</v>
       </c>
-      <c r="M36" s="77">
+      <c r="M36" s="72">
         <v>3.9547042350685202</v>
       </c>
-      <c r="N36" s="76">
+      <c r="N36" s="71">
         <v>4282955.5</v>
       </c>
-      <c r="O36" s="76">
+      <c r="O36" s="71">
         <v>54553096.950000003</v>
       </c>
-      <c r="P36" s="76">
+      <c r="P36" s="71">
         <v>155</v>
       </c>
-      <c r="Q36" s="76">
+      <c r="Q36" s="71">
         <v>52</v>
       </c>
-      <c r="R36" s="77">
+      <c r="R36" s="72">
         <v>198.07692307692301</v>
       </c>
-      <c r="S36" s="76">
+      <c r="S36" s="71">
         <v>2014.7849677419399</v>
       </c>
-      <c r="T36" s="76">
+      <c r="T36" s="71">
         <v>1739.8103846153799</v>
       </c>
-      <c r="U36" s="78">
+      <c r="U36" s="73">
         <v>13.647837735990599</v>
       </c>
     </row>
-    <row r="37" spans="1:21" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="54"/>
-      <c r="B37" s="62" t="s">
+    <row r="37" spans="1:21" ht="12" thickBot="1">
+      <c r="A37" s="74"/>
+      <c r="B37" s="48" t="s">
         <v>36</v>
       </c>
-      <c r="C37" s="51"/>
-      <c r="D37" s="76">
+      <c r="C37" s="49"/>
+      <c r="D37" s="71">
         <v>161147.9</v>
       </c>
-      <c r="E37" s="79"/>
-      <c r="F37" s="79"/>
-      <c r="G37" s="76">
+      <c r="E37" s="75"/>
+      <c r="F37" s="75"/>
+      <c r="G37" s="71">
         <v>18893.169999999998</v>
       </c>
-      <c r="H37" s="77">
+      <c r="H37" s="72">
         <v>752.94262423934197</v>
       </c>
-      <c r="I37" s="76">
+      <c r="I37" s="71">
         <v>-10752.18</v>
       </c>
-      <c r="J37" s="77">
+      <c r="J37" s="72">
         <v>-6.6722433243002204</v>
       </c>
-      <c r="K37" s="76">
+      <c r="K37" s="71">
         <v>761.51</v>
       </c>
-      <c r="L37" s="77">
+      <c r="L37" s="72">
         <v>4.0306100035092101</v>
       </c>
-      <c r="M37" s="77">
+      <c r="M37" s="72">
         <v>-15.1195519428504</v>
       </c>
-      <c r="N37" s="76">
+      <c r="N37" s="71">
         <v>1913243.92</v>
       </c>
-      <c r="O37" s="76">
+      <c r="O37" s="71">
         <v>26278541.120000001</v>
       </c>
-      <c r="P37" s="76">
+      <c r="P37" s="71">
         <v>67</v>
       </c>
-      <c r="Q37" s="76">
+      <c r="Q37" s="71">
         <v>5</v>
       </c>
-      <c r="R37" s="77">
+      <c r="R37" s="72">
         <v>1240</v>
       </c>
-      <c r="S37" s="76">
+      <c r="S37" s="71">
         <v>2405.19253731343</v>
       </c>
-      <c r="T37" s="76">
+      <c r="T37" s="71">
         <v>1115.558</v>
       </c>
-      <c r="U37" s="78">
+      <c r="U37" s="73">
         <v>53.618765121978001</v>
       </c>
     </row>
-    <row r="38" spans="1:21" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="54"/>
-      <c r="B38" s="62" t="s">
+    <row r="38" spans="1:21" ht="12" thickBot="1">
+      <c r="A38" s="74"/>
+      <c r="B38" s="48" t="s">
         <v>37</v>
       </c>
-      <c r="C38" s="51"/>
-      <c r="D38" s="76">
+      <c r="C38" s="49"/>
+      <c r="D38" s="71">
         <v>211272</v>
       </c>
-      <c r="E38" s="79"/>
-      <c r="F38" s="79"/>
-      <c r="G38" s="76">
+      <c r="E38" s="75"/>
+      <c r="F38" s="75"/>
+      <c r="G38" s="71">
         <v>113309.49</v>
       </c>
-      <c r="H38" s="77">
+      <c r="H38" s="72">
         <v>86.455697576610802</v>
       </c>
-      <c r="I38" s="76">
+      <c r="I38" s="71">
         <v>-36706.31</v>
       </c>
-      <c r="J38" s="77">
+      <c r="J38" s="72">
         <v>-17.373958688325999</v>
       </c>
-      <c r="K38" s="76">
+      <c r="K38" s="71">
         <v>-11607.92</v>
       </c>
-      <c r="L38" s="77">
+      <c r="L38" s="72">
         <v>-10.2444376018284</v>
       </c>
-      <c r="M38" s="77">
+      <c r="M38" s="72">
         <v>2.1621780646317301</v>
       </c>
-      <c r="N38" s="76">
+      <c r="N38" s="71">
         <v>3103230.17</v>
       </c>
-      <c r="O38" s="76">
+      <c r="O38" s="71">
         <v>30965902.98</v>
       </c>
-      <c r="P38" s="76">
+      <c r="P38" s="71">
         <v>121</v>
       </c>
-      <c r="Q38" s="76">
+      <c r="Q38" s="71">
         <v>40</v>
       </c>
-      <c r="R38" s="77">
+      <c r="R38" s="72">
         <v>202.5</v>
       </c>
-      <c r="S38" s="76">
+      <c r="S38" s="71">
         <v>1746.04958677686</v>
       </c>
-      <c r="T38" s="76">
+      <c r="T38" s="71">
         <v>1463.1210000000001</v>
       </c>
-      <c r="U38" s="78">
+      <c r="U38" s="73">
         <v>16.203926218334701</v>
       </c>
     </row>
-    <row r="39" spans="1:21" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="54"/>
-      <c r="B39" s="62" t="s">
+    <row r="39" spans="1:21" ht="12" thickBot="1">
+      <c r="A39" s="74"/>
+      <c r="B39" s="48" t="s">
         <v>70</v>
       </c>
-      <c r="C39" s="51"/>
-      <c r="D39" s="79"/>
-      <c r="E39" s="79"/>
-      <c r="F39" s="79"/>
-      <c r="G39" s="76">
+      <c r="C39" s="49"/>
+      <c r="D39" s="75"/>
+      <c r="E39" s="75"/>
+      <c r="F39" s="75"/>
+      <c r="G39" s="71">
         <v>7.27</v>
       </c>
-      <c r="H39" s="79"/>
-      <c r="I39" s="79"/>
-      <c r="J39" s="79"/>
-      <c r="K39" s="76">
+      <c r="H39" s="75"/>
+      <c r="I39" s="75"/>
+      <c r="J39" s="75"/>
+      <c r="K39" s="71">
         <v>7.27</v>
       </c>
-      <c r="L39" s="77">
+      <c r="L39" s="72">
         <v>100</v>
       </c>
-      <c r="M39" s="79"/>
-      <c r="N39" s="76">
+      <c r="M39" s="75"/>
+      <c r="N39" s="71">
         <v>17.11</v>
       </c>
-      <c r="O39" s="76">
+      <c r="O39" s="71">
         <v>1244.42</v>
       </c>
-      <c r="P39" s="79"/>
-      <c r="Q39" s="79"/>
-      <c r="R39" s="79"/>
-      <c r="S39" s="79"/>
-      <c r="T39" s="79"/>
-      <c r="U39" s="80"/>
+      <c r="P39" s="75"/>
+      <c r="Q39" s="75"/>
+      <c r="R39" s="75"/>
+      <c r="S39" s="75"/>
+      <c r="T39" s="75"/>
+      <c r="U39" s="76"/>
     </row>
-    <row r="40" spans="1:21" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="54"/>
-      <c r="B40" s="62" t="s">
+    <row r="40" spans="1:21" ht="12" customHeight="1" thickBot="1">
+      <c r="A40" s="74"/>
+      <c r="B40" s="48" t="s">
         <v>32</v>
       </c>
-      <c r="C40" s="51"/>
-      <c r="D40" s="76">
+      <c r="C40" s="49"/>
+      <c r="D40" s="71">
         <v>43661.538200000003</v>
       </c>
-      <c r="E40" s="79"/>
-      <c r="F40" s="79"/>
-      <c r="G40" s="76">
+      <c r="E40" s="75"/>
+      <c r="F40" s="75"/>
+      <c r="G40" s="71">
         <v>90772.649099999995</v>
       </c>
-      <c r="H40" s="77">
+      <c r="H40" s="72">
         <v>-51.900116794101599</v>
       </c>
-      <c r="I40" s="76">
+      <c r="I40" s="71">
         <v>2328.8254000000002</v>
       </c>
-      <c r="J40" s="77">
+      <c r="J40" s="72">
         <v>5.3338143730355299</v>
       </c>
-      <c r="K40" s="76">
+      <c r="K40" s="71">
         <v>4763.9759000000004</v>
       </c>
-      <c r="L40" s="77">
+      <c r="L40" s="72">
         <v>5.2482503785383097</v>
       </c>
-      <c r="M40" s="77">
+      <c r="M40" s="72">
         <v>-0.51115928189309301</v>
       </c>
-      <c r="N40" s="76">
+      <c r="N40" s="71">
         <v>1111205.1324</v>
       </c>
-      <c r="O40" s="76">
+      <c r="O40" s="71">
         <v>10988047.262</v>
       </c>
-      <c r="P40" s="76">
+      <c r="P40" s="71">
         <v>97</v>
       </c>
-      <c r="Q40" s="76">
+      <c r="Q40" s="71">
         <v>73</v>
       </c>
-      <c r="R40" s="77">
+      <c r="R40" s="72">
         <v>32.876712328767098</v>
       </c>
-      <c r="S40" s="76">
+      <c r="S40" s="71">
         <v>450.11895051546401</v>
       </c>
-      <c r="T40" s="76">
+      <c r="T40" s="71">
         <v>404.83549863013701</v>
       </c>
-      <c r="U40" s="78">
+      <c r="U40" s="73">
         <v>10.060330015759099</v>
       </c>
     </row>
-    <row r="41" spans="1:21" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="54"/>
-      <c r="B41" s="62" t="s">
+    <row r="41" spans="1:21" ht="12" thickBot="1">
+      <c r="A41" s="74"/>
+      <c r="B41" s="48" t="s">
         <v>33</v>
       </c>
-      <c r="C41" s="51"/>
-      <c r="D41" s="76">
+      <c r="C41" s="49"/>
+      <c r="D41" s="71">
         <v>291475.11900000001</v>
       </c>
-      <c r="E41" s="76">
+      <c r="E41" s="71">
         <v>676912.87829999998</v>
       </c>
-      <c r="F41" s="77">
+      <c r="F41" s="72">
         <v>43.059473138110597</v>
       </c>
-      <c r="G41" s="76">
+      <c r="G41" s="71">
         <v>258303.94289999999</v>
       </c>
-      <c r="H41" s="77">
+      <c r="H41" s="72">
         <v>12.8419162818749</v>
       </c>
-      <c r="I41" s="76">
+      <c r="I41" s="71">
         <v>13637.819</v>
       </c>
-      <c r="J41" s="77">
+      <c r="J41" s="72">
         <v>4.6788964515355396</v>
       </c>
-      <c r="K41" s="76">
+      <c r="K41" s="71">
         <v>19358.447800000002</v>
       </c>
-      <c r="L41" s="77">
+      <c r="L41" s="72">
         <v>7.4944453354684004</v>
       </c>
-      <c r="M41" s="77">
+      <c r="M41" s="72">
         <v>-0.29551071754833602</v>
       </c>
-      <c r="N41" s="76">
+      <c r="N41" s="71">
         <v>6776198.8364000004</v>
       </c>
-      <c r="O41" s="76">
+      <c r="O41" s="71">
         <v>61383356.941399999</v>
       </c>
-      <c r="P41" s="76">
+      <c r="P41" s="71">
         <v>1375</v>
       </c>
-      <c r="Q41" s="76">
+      <c r="Q41" s="71">
         <v>1206</v>
       </c>
-      <c r="R41" s="77">
+      <c r="R41" s="72">
         <v>14.013266998341599</v>
       </c>
-      <c r="S41" s="76">
+      <c r="S41" s="71">
         <v>211.98190472727299</v>
       </c>
-      <c r="T41" s="76">
+      <c r="T41" s="71">
         <v>203.512843698176</v>
       </c>
-      <c r="U41" s="78">
+      <c r="U41" s="73">
         <v>3.9951811169886802</v>
       </c>
     </row>
-    <row r="42" spans="1:21" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="54"/>
-      <c r="B42" s="62" t="s">
+    <row r="42" spans="1:21" ht="12" thickBot="1">
+      <c r="A42" s="74"/>
+      <c r="B42" s="48" t="s">
         <v>38</v>
       </c>
-      <c r="C42" s="51"/>
-      <c r="D42" s="76">
+      <c r="C42" s="49"/>
+      <c r="D42" s="71">
         <v>177360.74</v>
       </c>
-      <c r="E42" s="79"/>
-      <c r="F42" s="79"/>
-      <c r="G42" s="76">
+      <c r="E42" s="75"/>
+      <c r="F42" s="75"/>
+      <c r="G42" s="71">
         <v>55970.16</v>
       </c>
-      <c r="H42" s="77">
+      <c r="H42" s="72">
         <v>216.884461291517</v>
       </c>
-      <c r="I42" s="76">
+      <c r="I42" s="71">
         <v>-46125.54</v>
       </c>
-      <c r="J42" s="77">
+      <c r="J42" s="72">
         <v>-26.006623562802002</v>
       </c>
-      <c r="K42" s="76">
+      <c r="K42" s="71">
         <v>-9002.9599999999991</v>
       </c>
-      <c r="L42" s="77">
+      <c r="L42" s="72">
         <v>-16.085285444958501</v>
       </c>
-      <c r="M42" s="77">
+      <c r="M42" s="72">
         <v>4.1233749788958303</v>
       </c>
-      <c r="N42" s="76">
+      <c r="N42" s="71">
         <v>2548098.52</v>
       </c>
-      <c r="O42" s="76">
+      <c r="O42" s="71">
         <v>25777545.100000001</v>
       </c>
-      <c r="P42" s="76">
+      <c r="P42" s="71">
         <v>125</v>
       </c>
-      <c r="Q42" s="76">
+      <c r="Q42" s="71">
         <v>44</v>
       </c>
-      <c r="R42" s="77">
+      <c r="R42" s="72">
         <v>184.09090909090901</v>
       </c>
-      <c r="S42" s="76">
+      <c r="S42" s="71">
         <v>1418.8859199999999</v>
       </c>
-      <c r="T42" s="76">
+      <c r="T42" s="71">
         <v>1128.6527272727301</v>
       </c>
-      <c r="U42" s="78">
+      <c r="U42" s="73">
         <v>20.455005482560001</v>
       </c>
     </row>
-    <row r="43" spans="1:21" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="54"/>
-      <c r="B43" s="62" t="s">
+    <row r="43" spans="1:21" ht="12" thickBot="1">
+      <c r="A43" s="74"/>
+      <c r="B43" s="48" t="s">
         <v>39</v>
       </c>
-      <c r="C43" s="51"/>
-      <c r="D43" s="76">
+      <c r="C43" s="49"/>
+      <c r="D43" s="71">
         <v>61870.99</v>
       </c>
-      <c r="E43" s="79"/>
-      <c r="F43" s="79"/>
-      <c r="G43" s="76">
+      <c r="E43" s="75"/>
+      <c r="F43" s="75"/>
+      <c r="G43" s="71">
         <v>23868.39</v>
       </c>
-      <c r="H43" s="77">
+      <c r="H43" s="72">
         <v>159.217274395131</v>
       </c>
-      <c r="I43" s="76">
+      <c r="I43" s="71">
         <v>5285.33</v>
       </c>
-      <c r="J43" s="77">
+      <c r="J43" s="72">
         <v>8.5425010978489304</v>
       </c>
-      <c r="K43" s="76">
+      <c r="K43" s="71">
         <v>2944.65</v>
       </c>
-      <c r="L43" s="77">
+      <c r="L43" s="72">
         <v>12.3370281782726</v>
       </c>
-      <c r="M43" s="77">
+      <c r="M43" s="72">
         <v>0.79489243203776305</v>
       </c>
-      <c r="N43" s="76">
+      <c r="N43" s="71">
         <v>1159532.18</v>
       </c>
-      <c r="O43" s="76">
+      <c r="O43" s="71">
         <v>9707759.7100000009</v>
       </c>
-      <c r="P43" s="76">
+      <c r="P43" s="71">
         <v>56</v>
       </c>
-      <c r="Q43" s="76">
+      <c r="Q43" s="71">
         <v>41</v>
       </c>
-      <c r="R43" s="77">
+      <c r="R43" s="72">
         <v>36.585365853658502</v>
       </c>
-      <c r="S43" s="76">
+      <c r="S43" s="71">
         <v>1104.83910714286</v>
       </c>
-      <c r="T43" s="76">
+      <c r="T43" s="71">
         <v>1067.5221951219501</v>
       </c>
-      <c r="U43" s="78">
+      <c r="U43" s="73">
         <v>3.37758790213431</v>
       </c>
     </row>
-    <row r="44" spans="1:21" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="54"/>
-      <c r="B44" s="62" t="s">
+    <row r="44" spans="1:21" ht="12" thickBot="1">
+      <c r="A44" s="74"/>
+      <c r="B44" s="48" t="s">
         <v>76</v>
       </c>
-      <c r="C44" s="51"/>
-      <c r="D44" s="79"/>
-      <c r="E44" s="79"/>
-      <c r="F44" s="79"/>
-      <c r="G44" s="79"/>
-      <c r="H44" s="79"/>
-      <c r="I44" s="79"/>
-      <c r="J44" s="79"/>
-      <c r="K44" s="79"/>
-      <c r="L44" s="79"/>
-      <c r="M44" s="79"/>
-      <c r="N44" s="79"/>
-      <c r="O44" s="76">
-        <v>-1523.9315999999999</v>
-      </c>
-      <c r="P44" s="76">
+      <c r="C44" s="49"/>
+      <c r="D44" s="71">
+        <v>85.470100000000002</v>
+      </c>
+      <c r="E44" s="75"/>
+      <c r="F44" s="75"/>
+      <c r="G44" s="75"/>
+      <c r="H44" s="75"/>
+      <c r="I44" s="71">
+        <v>85.47</v>
+      </c>
+      <c r="J44" s="72">
+        <v>99.999883000019906</v>
+      </c>
+      <c r="K44" s="75"/>
+      <c r="L44" s="75"/>
+      <c r="M44" s="75"/>
+      <c r="N44" s="71">
+        <v>828.80349999999999</v>
+      </c>
+      <c r="O44" s="71">
+        <v>-695.12810000000002</v>
+      </c>
+      <c r="P44" s="71">
         <v>1</v>
       </c>
-      <c r="Q44" s="76">
+      <c r="Q44" s="71">
         <v>1</v>
       </c>
-      <c r="R44" s="77">
+      <c r="R44" s="72">
         <v>0</v>
       </c>
-      <c r="S44" s="79"/>
-      <c r="T44" s="79"/>
-      <c r="U44" s="80"/>
+      <c r="S44" s="71">
+        <v>85.470100000000002</v>
+      </c>
+      <c r="T44" s="71">
+        <v>726.66669999999999</v>
+      </c>
+      <c r="U44" s="73">
+        <v>-750.19989446601801</v>
+      </c>
     </row>
-    <row r="45" spans="1:21" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="55"/>
-      <c r="B45" s="62" t="s">
+    <row r="45" spans="1:21" ht="12" thickBot="1">
+      <c r="A45" s="77"/>
+      <c r="B45" s="48" t="s">
         <v>34</v>
       </c>
-      <c r="C45" s="51"/>
-      <c r="D45" s="81">
+      <c r="C45" s="49"/>
+      <c r="D45" s="78">
         <v>3296.5131999999999</v>
       </c>
-      <c r="E45" s="82"/>
-      <c r="F45" s="82"/>
-      <c r="G45" s="81">
+      <c r="E45" s="79"/>
+      <c r="F45" s="79"/>
+      <c r="G45" s="78">
         <v>18154.209200000001</v>
       </c>
-      <c r="H45" s="83">
+      <c r="H45" s="80">
         <v>-81.841603984600994</v>
       </c>
-      <c r="I45" s="81">
+      <c r="I45" s="78">
         <v>176.2817</v>
       </c>
-      <c r="J45" s="83">
+      <c r="J45" s="80">
         <v>5.34751991892524</v>
       </c>
-      <c r="K45" s="81">
+      <c r="K45" s="78">
         <v>2979.2020000000002</v>
       </c>
-      <c r="L45" s="83">
+      <c r="L45" s="80">
         <v>16.410530291784902</v>
       </c>
-      <c r="M45" s="83">
+      <c r="M45" s="80">
         <v>-0.94082922205342201</v>
       </c>
-      <c r="N45" s="81">
+      <c r="N45" s="78">
         <v>269222.09980000003</v>
       </c>
-      <c r="O45" s="81">
+      <c r="O45" s="78">
         <v>3769819.0561000002</v>
       </c>
-      <c r="P45" s="81">
+      <c r="P45" s="78">
         <v>13</v>
       </c>
-      <c r="Q45" s="81">
+      <c r="Q45" s="78">
         <v>13</v>
       </c>
-      <c r="R45" s="83">
+      <c r="R45" s="80">
         <v>0</v>
       </c>
-      <c r="S45" s="81">
+      <c r="S45" s="78">
         <v>253.577938461538</v>
       </c>
-      <c r="T45" s="81">
+      <c r="T45" s="78">
         <v>311.34122307692297</v>
       </c>
-      <c r="U45" s="84">
+      <c r="U45" s="81">
         <v>-22.779302081969501</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="43">
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B24:C24"/>
     <mergeCell ref="A1:U4"/>
     <mergeCell ref="W1:W4"/>
     <mergeCell ref="B6:C6"/>
@@ -57698,33 +57780,6 @@
     <mergeCell ref="B16:C16"/>
     <mergeCell ref="B17:C17"/>
     <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="B40:C40"/>
   </mergeCells>
   <phoneticPr fontId="32" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -57734,7 +57789,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:H62"/>
   <sheetViews>
@@ -57742,7 +57797,7 @@
       <selection activeCell="J28" sqref="J28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="3.140625" style="28" customWidth="1"/>
     <col min="2" max="2" width="5.28515625" style="29" customWidth="1"/>
@@ -57752,7 +57807,7 @@
     <col min="9" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8">
       <c r="A1" s="38" t="s">
         <v>72</v>
       </c>
@@ -57778,7 +57833,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8">
       <c r="A2" s="37">
         <v>1</v>
       </c>
@@ -57804,7 +57859,7 @@
         <v>0.21173231775398901</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8">
       <c r="A3" s="37">
         <v>2</v>
       </c>
@@ -57830,7 +57885,7 @@
         <v>0.18943568177094899</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8">
       <c r="A4" s="37">
         <v>3</v>
       </c>
@@ -57856,7 +57911,7 @@
         <v>0.25486984029799098</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8">
       <c r="A5" s="37">
         <v>4</v>
       </c>
@@ -57882,7 +57937,7 @@
         <v>0.23860821124071499</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8">
       <c r="A6" s="37">
         <v>5</v>
       </c>
@@ -57908,7 +57963,7 @@
         <v>0.119137708148673</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8">
       <c r="A7" s="37">
         <v>6</v>
       </c>
@@ -57934,7 +57989,7 @@
         <v>8.9545558907605405E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8">
       <c r="A8" s="37">
         <v>7</v>
       </c>
@@ -57960,7 +58015,7 @@
         <v>-0.15103958797785</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8">
       <c r="A9" s="37">
         <v>8</v>
       </c>
@@ -57986,7 +58041,7 @@
         <v>1.3895610271972499E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8">
       <c r="A10" s="37">
         <v>9</v>
       </c>
@@ -58012,7 +58067,7 @@
         <v>8.3256258352270192E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8">
       <c r="A11" s="37">
         <v>10</v>
       </c>
@@ -58038,7 +58093,7 @@
         <v>0.120305058240515</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8">
       <c r="A12" s="37">
         <v>11</v>
       </c>
@@ -58064,7 +58119,7 @@
         <v>7.2293926423095595E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8">
       <c r="A13" s="37">
         <v>12</v>
       </c>
@@ -58090,7 +58145,7 @@
         <v>3.59307597502651E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8">
       <c r="A14" s="37">
         <v>13</v>
       </c>
@@ -58116,7 +58171,7 @@
         <v>4.2323953895237403E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8">
       <c r="A15" s="37">
         <v>14</v>
       </c>
@@ -58142,7 +58197,7 @@
         <v>0.10603411383780301</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8">
       <c r="A16" s="37">
         <v>15</v>
       </c>
@@ -58168,7 +58223,7 @@
         <v>4.1063282755636699E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8">
       <c r="A17" s="37">
         <v>16</v>
       </c>
@@ -58194,7 +58249,7 @@
         <v>9.7934354305182492E-3</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8">
       <c r="A18" s="37">
         <v>17</v>
       </c>
@@ -58220,7 +58275,7 @@
         <v>0.144978291014804</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8">
       <c r="A19" s="37">
         <v>18</v>
       </c>
@@ -58246,7 +58301,7 @@
         <v>7.2721297456179002E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8">
       <c r="A20" s="37">
         <v>19</v>
       </c>
@@ -58272,7 +58327,7 @@
         <v>0.173423751306433</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8">
       <c r="A21" s="37">
         <v>20</v>
       </c>
@@ -58298,7 +58353,7 @@
         <v>0.27964544590788198</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:8">
       <c r="A22" s="37">
         <v>21</v>
       </c>
@@ -58324,7 +58379,7 @@
         <v>4.1506953112561099E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:8">
       <c r="A23" s="37">
         <v>22</v>
       </c>
@@ -58350,7 +58405,7 @@
         <v>0.13448676227301801</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:8">
       <c r="A24" s="37">
         <v>23</v>
       </c>
@@ -58376,7 +58431,7 @@
         <v>8.2239739031339798E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:8">
       <c r="A25" s="37">
         <v>24</v>
       </c>
@@ -58402,7 +58457,7 @@
         <v>3.09870298357014E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:8">
       <c r="A26" s="37">
         <v>25</v>
       </c>
@@ -58428,7 +58483,7 @@
         <v>0.25335559788245698</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:8">
       <c r="A27" s="37">
         <v>26</v>
       </c>
@@ -58454,7 +58509,7 @@
         <v>7.83689696593632E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:8">
       <c r="A28" s="37">
         <v>27</v>
       </c>
@@ -58480,7 +58535,7 @@
         <v>5.3338129355571202E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:8">
       <c r="A29" s="37">
         <v>28</v>
       </c>
@@ -58506,7 +58561,7 @@
         <v>4.6788950391301203E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:8">
       <c r="A30" s="37">
         <v>29</v>
       </c>
@@ -58532,7 +58587,7 @@
         <v>5.34752198094679E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:8">
       <c r="A31" s="30">
         <v>30</v>
       </c>
@@ -58558,7 +58613,7 @@
         <v>0.99999883000019896</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:8">
       <c r="A32" s="30">
         <v>31</v>
       </c>
@@ -58584,7 +58639,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:8">
       <c r="A33" s="30"/>
       <c r="B33" s="33">
         <v>70</v>
@@ -58602,7 +58657,7 @@
       <c r="G33" s="30"/>
       <c r="H33" s="30"/>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:8">
       <c r="A34" s="30"/>
       <c r="B34" s="33">
         <v>71</v>
@@ -58620,7 +58675,7 @@
       <c r="G34" s="30"/>
       <c r="H34" s="30"/>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:8">
       <c r="A35" s="30"/>
       <c r="B35" s="33">
         <v>72</v>
@@ -58638,7 +58693,7 @@
       <c r="G35" s="30"/>
       <c r="H35" s="30"/>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:8">
       <c r="A36" s="30"/>
       <c r="B36" s="33">
         <v>73</v>
@@ -58656,7 +58711,7 @@
       <c r="G36" s="30"/>
       <c r="H36" s="30"/>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:8">
       <c r="A37" s="30"/>
       <c r="B37" s="33">
         <v>77</v>
@@ -58674,7 +58729,7 @@
       <c r="G37" s="30"/>
       <c r="H37" s="30"/>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:8">
       <c r="A38" s="30"/>
       <c r="B38" s="33">
         <v>78</v>
@@ -58692,7 +58747,7 @@
       <c r="G38" s="30"/>
       <c r="H38" s="30"/>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:8">
       <c r="A39" s="30"/>
       <c r="B39" s="33">
         <v>74</v>
@@ -58710,7 +58765,7 @@
       <c r="G39" s="30"/>
       <c r="H39" s="30"/>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:8">
       <c r="A40" s="30"/>
       <c r="B40" s="31"/>
       <c r="C40" s="30"/>
@@ -58720,7 +58775,7 @@
       <c r="G40" s="30"/>
       <c r="H40" s="30"/>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:8">
       <c r="A41" s="30"/>
       <c r="B41" s="31"/>
       <c r="C41" s="30"/>
@@ -58730,7 +58785,7 @@
       <c r="G41" s="30"/>
       <c r="H41" s="30"/>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:8">
       <c r="A42" s="30"/>
       <c r="B42" s="31"/>
       <c r="C42" s="31"/>
@@ -58740,7 +58795,7 @@
       <c r="G42" s="31"/>
       <c r="H42" s="31"/>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:8">
       <c r="A43" s="30"/>
       <c r="B43" s="31"/>
       <c r="C43" s="31"/>
@@ -58750,7 +58805,7 @@
       <c r="G43" s="31"/>
       <c r="H43" s="31"/>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:8">
       <c r="A44" s="30"/>
       <c r="B44" s="31"/>
       <c r="C44" s="30"/>
@@ -58760,7 +58815,7 @@
       <c r="G44" s="30"/>
       <c r="H44" s="30"/>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:8">
       <c r="A45" s="30"/>
       <c r="B45" s="31"/>
       <c r="C45" s="30"/>
@@ -58770,7 +58825,7 @@
       <c r="G45" s="30"/>
       <c r="H45" s="30"/>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:8">
       <c r="A46" s="30"/>
       <c r="B46" s="31"/>
       <c r="C46" s="30"/>
@@ -58780,7 +58835,7 @@
       <c r="G46" s="30"/>
       <c r="H46" s="30"/>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:8">
       <c r="A47" s="30"/>
       <c r="B47" s="31"/>
       <c r="C47" s="30"/>
@@ -58790,7 +58845,7 @@
       <c r="G47" s="30"/>
       <c r="H47" s="30"/>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:8">
       <c r="A48" s="30"/>
       <c r="B48" s="31"/>
       <c r="C48" s="30"/>
@@ -58800,7 +58855,7 @@
       <c r="G48" s="30"/>
       <c r="H48" s="30"/>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:8">
       <c r="A49" s="30"/>
       <c r="B49" s="31"/>
       <c r="C49" s="30"/>
@@ -58810,7 +58865,7 @@
       <c r="G49" s="30"/>
       <c r="H49" s="30"/>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:8">
       <c r="A50" s="30"/>
       <c r="B50" s="31"/>
       <c r="C50" s="30"/>
@@ -58820,7 +58875,7 @@
       <c r="G50" s="30"/>
       <c r="H50" s="30"/>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:8">
       <c r="A51" s="30"/>
       <c r="B51" s="31"/>
       <c r="C51" s="30"/>
@@ -58830,7 +58885,7 @@
       <c r="G51" s="30"/>
       <c r="H51" s="30"/>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:8">
       <c r="A52" s="30"/>
       <c r="B52" s="31"/>
       <c r="C52" s="30"/>
@@ -58840,7 +58895,7 @@
       <c r="G52" s="30"/>
       <c r="H52" s="30"/>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:8">
       <c r="A53" s="30"/>
       <c r="B53" s="31"/>
       <c r="C53" s="30"/>
@@ -58850,7 +58905,7 @@
       <c r="G53" s="30"/>
       <c r="H53" s="30"/>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:8">
       <c r="A54" s="30"/>
       <c r="B54" s="31"/>
       <c r="C54" s="30"/>
@@ -58860,7 +58915,7 @@
       <c r="G54" s="30"/>
       <c r="H54" s="30"/>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:8">
       <c r="A55" s="30"/>
       <c r="B55" s="31"/>
       <c r="C55" s="30"/>
@@ -58870,7 +58925,7 @@
       <c r="G55" s="30"/>
       <c r="H55" s="30"/>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:8">
       <c r="A56" s="30"/>
       <c r="B56" s="31"/>
       <c r="C56" s="30"/>
@@ -58880,7 +58935,7 @@
       <c r="G56" s="30"/>
       <c r="H56" s="30"/>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:8">
       <c r="A57" s="30"/>
       <c r="B57" s="31"/>
       <c r="C57" s="30"/>
@@ -58890,7 +58945,7 @@
       <c r="G57" s="30"/>
       <c r="H57" s="30"/>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:8">
       <c r="A58" s="30"/>
       <c r="B58" s="31"/>
       <c r="C58" s="30"/>
@@ -58900,7 +58955,7 @@
       <c r="G58" s="30"/>
       <c r="H58" s="30"/>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:8">
       <c r="A59" s="30"/>
       <c r="B59" s="31"/>
       <c r="C59" s="30"/>
@@ -58910,7 +58965,7 @@
       <c r="G59" s="30"/>
       <c r="H59" s="30"/>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:8">
       <c r="A60" s="30"/>
       <c r="B60" s="31"/>
       <c r="C60" s="30"/>
@@ -58920,7 +58975,7 @@
       <c r="G60" s="30"/>
       <c r="H60" s="30"/>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:8">
       <c r="A61" s="30"/>
       <c r="B61" s="31"/>
       <c r="C61" s="30"/>
@@ -58930,7 +58985,7 @@
       <c r="G61" s="30"/>
       <c r="H61" s="30"/>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:8">
       <c r="A62" s="30"/>
       <c r="B62" s="31"/>
       <c r="C62" s="30"/>
